--- a/tsml_eval/_wip/catch22/aeon_catch22_with_numba.xlsx
+++ b/tsml_eval/_wip/catch22/aeon_catch22_with_numba.xlsx
@@ -548,7 +548,7 @@
         <v>-0.2172266840934753</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>3</v>
+        <v>2.245543360870552</v>
       </c>
       <c r="D2" t="n">
         <v>6</v>
@@ -616,7 +616,7 @@
         <v>-0.2147622108459473</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>4</v>
+        <v>3.30560182848139</v>
       </c>
       <c r="D3" t="n">
         <v>8</v>
@@ -684,7 +684,7 @@
         <v>-0.08585639297962189</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>2</v>
+        <v>1.826515920865101</v>
       </c>
       <c r="D4" t="n">
         <v>5</v>
@@ -752,7 +752,7 @@
         <v>-0.4500797390937805</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>4</v>
+        <v>3.228657949064482</v>
       </c>
       <c r="D5" t="n">
         <v>10</v>
@@ -820,7 +820,7 @@
         <v>0.5725660920143127</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>4</v>
+        <v>3.412123258519425</v>
       </c>
       <c r="D6" t="n">
         <v>7</v>
@@ -888,7 +888,7 @@
         <v>-0.3925162255764008</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>3</v>
+        <v>2.345145650431962</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -956,7 +956,7 @@
         <v>-0.142518475651741</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>3</v>
+        <v>2.111142837746482</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -1024,7 +1024,7 @@
         <v>-0.3359417021274567</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>4</v>
+        <v>3.699873979106004</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>8</v>
@@ -1092,7 +1092,7 @@
         <v>0.7052313685417175</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>4</v>
+        <v>3.670459794708516</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>8</v>
@@ -1160,7 +1160,7 @@
         <v>-0.1334540843963623</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>4</v>
+        <v>3.13942864799979</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
@@ -1228,7 +1228,7 @@
         <v>-0.3635061681270599</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>4</v>
+        <v>2.844096786204988</v>
       </c>
       <c r="D12" t="n">
         <v>8</v>
@@ -1296,7 +1296,7 @@
         <v>-1.514761924743652</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>4</v>
+        <v>3.101766260610601</v>
       </c>
       <c r="D13" t="n">
         <v>8</v>
@@ -1364,7 +1364,7 @@
         <v>0.5681732892990112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>4</v>
+        <v>3.389178070572797</v>
       </c>
       <c r="D14" t="n">
         <v>8</v>
@@ -1432,7 +1432,7 @@
         <v>0.6141835153102875</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>4</v>
+        <v>3.396970569549581</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
         <v>-0.4390748143196106</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>4</v>
+        <v>3.246445256389047</v>
       </c>
       <c r="D16" t="n">
         <v>8</v>
@@ -1544,8 +1544,8 @@
       <c r="Q16" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="R16" s="1" t="n">
-        <v>1.790511713580148</v>
+      <c r="R16" t="n">
+        <v>1.73023804570537</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>-0.4183956980705261</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>3</v>
+        <v>2.384560970775786</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -1636,7 +1636,7 @@
         <v>0.7695344835519791</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>4</v>
+        <v>3.514985837357467</v>
       </c>
       <c r="D18" t="n">
         <v>6</v>
@@ -1704,7 +1704,7 @@
         <v>-0.3625948131084442</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>4</v>
+        <v>3.58883024088062</v>
       </c>
       <c r="D19" t="n">
         <v>6</v>
@@ -1772,7 +1772,7 @@
         <v>-0.4143381118774414</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>4</v>
+        <v>3.280512040827453</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>10</v>
@@ -1840,7 +1840,7 @@
         <v>0.5762799978256226</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>4</v>
+        <v>3.676215314762602</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>8</v>
@@ -1908,7 +1908,7 @@
         <v>1.023428201675415</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>4</v>
+        <v>3.356710081026915</v>
       </c>
       <c r="D22" t="n">
         <v>8</v>
@@ -1976,7 +1976,7 @@
         <v>0.6457960605621338</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>4</v>
+        <v>2.949372144650483</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>8</v>
@@ -2044,7 +2044,7 @@
         <v>0.4680100083351135</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>4</v>
+        <v>3.140384506129366</v>
       </c>
       <c r="D24" t="n">
         <v>7</v>
@@ -2112,7 +2112,7 @@
         <v>-0.1740318139394124</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>4</v>
+        <v>3.478566781820565</v>
       </c>
       <c r="D25" t="n">
         <v>8</v>
@@ -2180,7 +2180,7 @@
         <v>0.3508234620094299</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>4</v>
+        <v>3.004643487294367</v>
       </c>
       <c r="D26" t="n">
         <v>7</v>
@@ -2248,7 +2248,7 @@
         <v>-0.3646472990512848</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>3</v>
+        <v>1.987323928389985</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
@@ -2316,7 +2316,7 @@
         <v>0.3304328322410583</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>4</v>
+        <v>3.071363883181896</v>
       </c>
       <c r="D28" t="n">
         <v>7</v>
@@ -2384,7 +2384,7 @@
         <v>1.2090744972229</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>4</v>
+        <v>2.919894663659638</v>
       </c>
       <c r="D29" t="n">
         <v>9</v>
@@ -2452,7 +2452,7 @@
         <v>0.3232825696468353</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>4</v>
+        <v>3.157133396011119</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>8</v>
@@ -2520,7 +2520,7 @@
         <v>0.3791253566741943</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>4</v>
+        <v>3.355576584204473</v>
       </c>
       <c r="D31" t="n">
         <v>8</v>
@@ -2588,7 +2588,7 @@
         <v>1.027211666107178</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>4</v>
+        <v>3.561573084822518</v>
       </c>
       <c r="D32" t="n">
         <v>8</v>
@@ -2656,7 +2656,7 @@
         <v>-0.7519186735153198</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>3</v>
+        <v>2.256248150817039</v>
       </c>
       <c r="D33" t="n">
         <v>5</v>
@@ -2724,7 +2724,7 @@
         <v>-1.377173662185669</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>4</v>
+        <v>3.02826646812225</v>
       </c>
       <c r="D34" t="n">
         <v>10</v>
@@ -2792,7 +2792,7 @@
         <v>-0.8767848014831543</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>4</v>
+        <v>3.448647572559086</v>
       </c>
       <c r="D35" t="n">
         <v>6</v>
@@ -2860,7 +2860,7 @@
         <v>0.1222102642059326</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>3</v>
+        <v>2.059448363936673</v>
       </c>
       <c r="D36" t="n">
         <v>6</v>
@@ -2928,7 +2928,7 @@
         <v>-1.35373067855835</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>4</v>
+        <v>3.322914692736637</v>
       </c>
       <c r="D37" t="n">
         <v>10</v>
@@ -2996,7 +2996,7 @@
         <v>0.06383097171783447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>4</v>
+        <v>3.890404192759865</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>16</v>
@@ -3064,7 +3064,7 @@
         <v>0.005945734679698944</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>3</v>
+        <v>1.960944948771081</v>
       </c>
       <c r="D39" t="n">
         <v>6</v>
@@ -3132,7 +3132,7 @@
         <v>0.5940335988998413</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>4</v>
+        <v>3.502617908531668</v>
       </c>
       <c r="D40" t="n">
         <v>8</v>
@@ -3200,7 +3200,7 @@
         <v>0.2458418309688568</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>4</v>
+        <v>3.58212642291229</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>12</v>
@@ -3268,7 +3268,7 @@
         <v>-0.5533497830231985</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>3</v>
+        <v>2.90931474896152</v>
       </c>
       <c r="D42" t="n">
         <v>5</v>
@@ -3336,7 +3336,7 @@
         <v>-0.2013241052627563</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>4</v>
+        <v>3.055647580060249</v>
       </c>
       <c r="D43" t="n">
         <v>7</v>
@@ -3404,7 +3404,7 @@
         <v>-1.386887311935425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>4</v>
+        <v>3.400548422567045</v>
       </c>
       <c r="D44" t="n">
         <v>9</v>
@@ -3472,7 +3472,7 @@
         <v>0.1232104301452637</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>3</v>
+        <v>2.072244402765016</v>
       </c>
       <c r="D45" t="n">
         <v>7</v>
@@ -3540,7 +3540,7 @@
         <v>-0.4117159843444824</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>4</v>
+        <v>3.374829200679346</v>
       </c>
       <c r="D46" t="n">
         <v>8</v>
@@ -3608,7 +3608,7 @@
         <v>-1.343757629394531</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>4</v>
+        <v>2.998131463415418</v>
       </c>
       <c r="D47" t="n">
         <v>9</v>
@@ -3676,7 +3676,7 @@
         <v>-0.5499176979064941</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>3</v>
+        <v>2.339796701540011</v>
       </c>
       <c r="D48" t="n">
         <v>5</v>
@@ -3744,7 +3744,7 @@
         <v>-0.3411079943180084</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>4</v>
+        <v>3.262997344743428</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>10</v>
@@ -3812,7 +3812,7 @@
         <v>-0.2267749011516571</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>3</v>
+        <v>2.469661127172979</v>
       </c>
       <c r="D50" t="n">
         <v>7</v>
@@ -3880,7 +3880,7 @@
         <v>-0.3633207678794861</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>3</v>
+        <v>1.972691541567914</v>
       </c>
       <c r="D51" t="n">
         <v>6</v>
@@ -3948,7 +3948,7 @@
         <v>0.6527048349380493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>4</v>
+        <v>3.387388014395206</v>
       </c>
       <c r="D52" t="n">
         <v>8</v>
@@ -4016,7 +4016,7 @@
         <v>-0.08114497363567352</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>3</v>
+        <v>2.152874034028958</v>
       </c>
       <c r="D53" t="n">
         <v>7</v>
@@ -4084,7 +4084,7 @@
         <v>0.6170146465301514</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>4</v>
+        <v>3.057040802649662</v>
       </c>
       <c r="D54" t="n">
         <v>8</v>
@@ -4152,7 +4152,7 @@
         <v>-0.1821102797985077</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>3</v>
+        <v>1.990439510243164</v>
       </c>
       <c r="D55" t="n">
         <v>6</v>
@@ -4220,7 +4220,7 @@
         <v>-0.7950617522001266</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>3</v>
+        <v>2.076413323261392</v>
       </c>
       <c r="D56" t="n">
         <v>6</v>
@@ -4288,7 +4288,7 @@
         <v>-0.4745312929153442</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>4</v>
+        <v>3.379076572867782</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>8</v>
@@ -4356,7 +4356,7 @@
         <v>-0.621077224612236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>4</v>
+        <v>3.072295837936831</v>
       </c>
       <c r="D58" t="n">
         <v>9</v>
@@ -4424,7 +4424,7 @@
         <v>0.9700087308883667</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>4</v>
+        <v>3.854777680991552</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>16</v>
@@ -4492,7 +4492,7 @@
         <v>-0.1767330850873675</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>3</v>
+        <v>2.998803481508856</v>
       </c>
       <c r="D60" t="n">
         <v>6</v>
@@ -4560,7 +4560,7 @@
         <v>-0.4562288522720337</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>2</v>
+        <v>1.837308766502794</v>
       </c>
       <c r="D61" t="n">
         <v>6</v>
@@ -4628,7 +4628,7 @@
         <v>-1.379035830497742</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>4</v>
+        <v>3.095129001671112</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>10</v>
@@ -4696,7 +4696,7 @@
         <v>1.000827193260193</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>4</v>
+        <v>3.684800708408118</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>8</v>
@@ -4764,7 +4764,7 @@
         <v>1.074292063713074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>4</v>
+        <v>2.907311151616773</v>
       </c>
       <c r="D64" t="n">
         <v>7</v>
@@ -4808,8 +4808,8 @@
       <c r="Q64" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="R64" s="1" t="n">
-        <v>1.790511713580148</v>
+      <c r="R64" t="n">
+        <v>1.73023804570537</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
@@ -4832,7 +4832,7 @@
         <v>0.8525265455245972</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>4</v>
+        <v>3.28585977595341</v>
       </c>
       <c r="D65" t="n">
         <v>8</v>
@@ -4900,7 +4900,7 @@
         <v>0.7601801753044128</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>4</v>
+        <v>3.238479202448542</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>8</v>
@@ -4968,7 +4968,7 @@
         <v>-1.36204195022583</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>4</v>
+        <v>3.312365901247355</v>
       </c>
       <c r="D67" t="n">
         <v>9</v>
@@ -5036,7 +5036,7 @@
         <v>-0.7230163812637329</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>2</v>
+        <v>1.834861412456896</v>
       </c>
       <c r="D68" t="n">
         <v>6</v>

--- a/tsml_eval/_wip/catch22/aeon_catch22_with_numba.xlsx
+++ b/tsml_eval/_wip/catch22/aeon_catch22_with_numba.xlsx
@@ -548,7 +548,7 @@
         <v>-0.2172266840934753</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>2.245543360870552</v>
+        <v>2.245543360870478</v>
       </c>
       <c r="D2" t="n">
         <v>6</v>
@@ -616,7 +616,7 @@
         <v>-0.2147622108459473</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>3.30560182848139</v>
+        <v>3.30560182848101</v>
       </c>
       <c r="D3" t="n">
         <v>8</v>
@@ -684,7 +684,7 @@
         <v>-0.08585639297962189</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>1.826515920865101</v>
+        <v>1.826515920865064</v>
       </c>
       <c r="D4" t="n">
         <v>5</v>
@@ -752,7 +752,7 @@
         <v>-0.4500797390937805</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>3.228657949064482</v>
+        <v>3.228657949064056</v>
       </c>
       <c r="D5" t="n">
         <v>10</v>
@@ -820,7 +820,7 @@
         <v>0.5725660920143127</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>3.412123258519425</v>
+        <v>3.412123258519119</v>
       </c>
       <c r="D6" t="n">
         <v>7</v>
@@ -888,7 +888,7 @@
         <v>-0.3925162255764008</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>2.345145650431962</v>
+        <v>2.345145650431858</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -956,7 +956,7 @@
         <v>-0.142518475651741</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>2.111142837746482</v>
+        <v>2.111142837746413</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -1024,7 +1024,7 @@
         <v>-0.3359417021274567</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>3.699873979106004</v>
+        <v>3.699873979105761</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>8</v>
@@ -1092,7 +1092,7 @@
         <v>0.7052313685417175</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>3.670459794708516</v>
+        <v>3.670459794708263</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>8</v>
@@ -1160,7 +1160,7 @@
         <v>-0.1334540843963623</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>3.13942864799979</v>
+        <v>3.139428647999336</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
@@ -1228,7 +1228,7 @@
         <v>-0.3635061681270599</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>2.844096786204988</v>
+        <v>2.844096786204584</v>
       </c>
       <c r="D12" t="n">
         <v>8</v>
@@ -1296,7 +1296,7 @@
         <v>-1.514761924743652</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>3.101766260610601</v>
+        <v>3.101766260610153</v>
       </c>
       <c r="D13" t="n">
         <v>8</v>
@@ -1364,7 +1364,7 @@
         <v>0.5681732892990112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>3.389178070572797</v>
+        <v>3.389178070572481</v>
       </c>
       <c r="D14" t="n">
         <v>8</v>
@@ -1432,7 +1432,7 @@
         <v>0.6141835153102875</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>3.396970569549581</v>
+        <v>3.396970569549217</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
         <v>-0.4390748143196106</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>3.246445256389047</v>
+        <v>3.246445256388673</v>
       </c>
       <c r="D16" t="n">
         <v>8</v>
@@ -1568,7 +1568,7 @@
         <v>-0.4183956980705261</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>2.384560970775786</v>
+        <v>2.384560970775679</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -1636,7 +1636,7 @@
         <v>0.7695344835519791</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>3.514985837357467</v>
+        <v>3.514985837357224</v>
       </c>
       <c r="D18" t="n">
         <v>6</v>
@@ -1704,7 +1704,7 @@
         <v>-0.3625948131084442</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>3.58883024088062</v>
+        <v>3.588830240880397</v>
       </c>
       <c r="D19" t="n">
         <v>6</v>
@@ -1772,7 +1772,7 @@
         <v>-0.4143381118774414</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>3.280512040827453</v>
+        <v>3.280512040827034</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>10</v>
@@ -1840,7 +1840,7 @@
         <v>0.5762799978256226</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>3.676215314762602</v>
+        <v>3.676215314762354</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>8</v>
@@ -1908,7 +1908,7 @@
         <v>1.023428201675415</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>3.356710081026915</v>
+        <v>3.356710081026564</v>
       </c>
       <c r="D22" t="n">
         <v>8</v>
@@ -1976,7 +1976,7 @@
         <v>0.6457960605621338</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>2.949372144650483</v>
+        <v>2.949372144650085</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>8</v>
@@ -2044,7 +2044,7 @@
         <v>0.4680100083351135</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>3.140384506129366</v>
+        <v>3.140384506128961</v>
       </c>
       <c r="D24" t="n">
         <v>7</v>
@@ -2112,7 +2112,7 @@
         <v>-0.1740318139394124</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>3.478566781820565</v>
+        <v>3.478566781820282</v>
       </c>
       <c r="D25" t="n">
         <v>8</v>
@@ -2180,7 +2180,7 @@
         <v>0.3508234620094299</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>3.004643487294367</v>
+        <v>3.00464348729393</v>
       </c>
       <c r="D26" t="n">
         <v>7</v>
@@ -2248,7 +2248,7 @@
         <v>-0.3646472990512848</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>1.987323928389985</v>
+        <v>1.987323928389954</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
@@ -2316,7 +2316,7 @@
         <v>0.3304328322410583</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>3.071363883181896</v>
+        <v>3.071363883181471</v>
       </c>
       <c r="D28" t="n">
         <v>7</v>
@@ -2384,7 +2384,7 @@
         <v>1.2090744972229</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>2.919894663659638</v>
+        <v>2.919894663659235</v>
       </c>
       <c r="D29" t="n">
         <v>9</v>
@@ -2452,7 +2452,7 @@
         <v>0.3232825696468353</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>3.157133396011119</v>
+        <v>3.157133396010675</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>8</v>
@@ -2520,7 +2520,7 @@
         <v>0.3791253566741943</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>3.355576584204473</v>
+        <v>3.35557658420413</v>
       </c>
       <c r="D31" t="n">
         <v>8</v>
@@ -2588,7 +2588,7 @@
         <v>1.027211666107178</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>3.561573084822518</v>
+        <v>3.56157308482224</v>
       </c>
       <c r="D32" t="n">
         <v>8</v>
@@ -2656,7 +2656,7 @@
         <v>-0.7519186735153198</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>2.256248150817039</v>
+        <v>2.25624815081696</v>
       </c>
       <c r="D33" t="n">
         <v>5</v>
@@ -2724,7 +2724,7 @@
         <v>-1.377173662185669</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>3.02826646812225</v>
+        <v>3.02826646812178</v>
       </c>
       <c r="D34" t="n">
         <v>10</v>
@@ -2792,7 +2792,7 @@
         <v>-0.8767848014831543</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>3.448647572559086</v>
+        <v>3.448647572558811</v>
       </c>
       <c r="D35" t="n">
         <v>6</v>
@@ -2860,7 +2860,7 @@
         <v>0.1222102642059326</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>2.059448363936673</v>
+        <v>2.059448363936612</v>
       </c>
       <c r="D36" t="n">
         <v>6</v>
@@ -2928,7 +2928,7 @@
         <v>-1.35373067855835</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>3.322914692736637</v>
+        <v>3.322914692736227</v>
       </c>
       <c r="D37" t="n">
         <v>10</v>
@@ -2996,7 +2996,7 @@
         <v>0.06383097171783447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>3.890404192759865</v>
+        <v>3.890404192759681</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>16</v>
@@ -3064,7 +3064,7 @@
         <v>0.005945734679698944</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>1.960944948771081</v>
+        <v>1.960944948771042</v>
       </c>
       <c r="D39" t="n">
         <v>6</v>
@@ -3132,7 +3132,7 @@
         <v>0.5940335988998413</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>3.502617908531668</v>
+        <v>3.502617908531362</v>
       </c>
       <c r="D40" t="n">
         <v>8</v>
@@ -3200,7 +3200,7 @@
         <v>0.2458418309688568</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>3.58212642291229</v>
+        <v>3.582126422911973</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>12</v>
@@ -3268,7 +3268,7 @@
         <v>-0.5533497830231985</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>2.90931474896152</v>
+        <v>2.909314748961238</v>
       </c>
       <c r="D42" t="n">
         <v>5</v>
@@ -3336,7 +3336,7 @@
         <v>-0.2013241052627563</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>3.055647580060249</v>
+        <v>3.05564758005983</v>
       </c>
       <c r="D43" t="n">
         <v>7</v>
@@ -3404,7 +3404,7 @@
         <v>-1.386887311935425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>3.400548422567045</v>
+        <v>3.40054842256667</v>
       </c>
       <c r="D44" t="n">
         <v>9</v>
@@ -3472,7 +3472,7 @@
         <v>0.1232104301452637</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>2.072244402765016</v>
+        <v>2.072244402764951</v>
       </c>
       <c r="D45" t="n">
         <v>7</v>
@@ -3540,7 +3540,7 @@
         <v>-0.4117159843444824</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>3.374829200679346</v>
+        <v>3.374829200679033</v>
       </c>
       <c r="D46" t="n">
         <v>8</v>
@@ -3608,7 +3608,7 @@
         <v>-1.343757629394531</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>2.998131463415418</v>
+        <v>2.99813146341499</v>
       </c>
       <c r="D47" t="n">
         <v>9</v>
@@ -3676,7 +3676,7 @@
         <v>-0.5499176979064941</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>2.339796701540011</v>
+        <v>2.339796701539905</v>
       </c>
       <c r="D48" t="n">
         <v>5</v>
@@ -3744,7 +3744,7 @@
         <v>-0.3411079943180084</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>3.262997344743428</v>
+        <v>3.262997344743015</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>10</v>
@@ -3812,7 +3812,7 @@
         <v>-0.2267749011516571</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>2.469661127172979</v>
+        <v>2.46966112717284</v>
       </c>
       <c r="D50" t="n">
         <v>7</v>
@@ -3880,7 +3880,7 @@
         <v>-0.3633207678794861</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>1.972691541567914</v>
+        <v>1.972691541567886</v>
       </c>
       <c r="D51" t="n">
         <v>6</v>
@@ -3948,7 +3948,7 @@
         <v>0.6527048349380493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>3.387388014395206</v>
+        <v>3.387388014394869</v>
       </c>
       <c r="D52" t="n">
         <v>8</v>
@@ -4016,7 +4016,7 @@
         <v>-0.08114497363567352</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>2.152874034028958</v>
+        <v>2.152874034028877</v>
       </c>
       <c r="D53" t="n">
         <v>7</v>
@@ -4084,7 +4084,7 @@
         <v>0.6170146465301514</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>3.057040802649662</v>
+        <v>3.057040802649207</v>
       </c>
       <c r="D54" t="n">
         <v>8</v>
@@ -4152,7 +4152,7 @@
         <v>-0.1821102797985077</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>1.990439510243164</v>
+        <v>1.990439510243127</v>
       </c>
       <c r="D55" t="n">
         <v>6</v>
@@ -4220,7 +4220,7 @@
         <v>-0.7950617522001266</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>2.076413323261392</v>
+        <v>2.076413323261349</v>
       </c>
       <c r="D56" t="n">
         <v>6</v>
@@ -4288,7 +4288,7 @@
         <v>-0.4745312929153442</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>3.379076572867782</v>
+        <v>3.379076572867401</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>8</v>
@@ -4356,7 +4356,7 @@
         <v>-0.621077224612236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>3.072295837936831</v>
+        <v>3.072295837936365</v>
       </c>
       <c r="D58" t="n">
         <v>9</v>
@@ -4424,7 +4424,7 @@
         <v>0.9700087308883667</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>3.854777680991552</v>
+        <v>3.854777680991358</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>16</v>
@@ -4492,7 +4492,7 @@
         <v>-0.1767330850873675</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>2.998803481508856</v>
+        <v>2.998803481508547</v>
       </c>
       <c r="D60" t="n">
         <v>6</v>
@@ -4560,7 +4560,7 @@
         <v>-0.4562288522720337</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>1.837308766502794</v>
+        <v>1.837308766502761</v>
       </c>
       <c r="D61" t="n">
         <v>6</v>
@@ -4628,7 +4628,7 @@
         <v>-1.379035830497742</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>3.095129001671112</v>
+        <v>3.095129001670651</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>10</v>
@@ -4696,7 +4696,7 @@
         <v>1.000827193260193</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>3.684800708408118</v>
+        <v>3.68480070840787</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>8</v>
@@ -4764,7 +4764,7 @@
         <v>1.074292063713074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>2.907311151616773</v>
+        <v>2.907311151616438</v>
       </c>
       <c r="D64" t="n">
         <v>7</v>
@@ -4832,7 +4832,7 @@
         <v>0.8525265455245972</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>3.28585977595341</v>
+        <v>3.285859775952992</v>
       </c>
       <c r="D65" t="n">
         <v>8</v>
@@ -4900,7 +4900,7 @@
         <v>0.7601801753044128</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>3.238479202448542</v>
+        <v>3.238479202448134</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>8</v>
@@ -4968,7 +4968,7 @@
         <v>-1.36204195022583</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>3.312365901247355</v>
+        <v>3.312365901246937</v>
       </c>
       <c r="D67" t="n">
         <v>9</v>
@@ -5036,7 +5036,7 @@
         <v>-0.7230163812637329</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>1.834861412456896</v>
+        <v>1.83486141245687</v>
       </c>
       <c r="D68" t="n">
         <v>6</v>

--- a/tsml_eval/_wip/catch22/aeon_catch22_with_numba.xlsx
+++ b/tsml_eval/_wip/catch22/aeon_catch22_with_numba.xlsx
@@ -548,7 +548,7 @@
         <v>-0.2172266840934753</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>2.245543360870478</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>6</v>
@@ -562,8 +562,8 @@
       <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>5</v>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
       <c r="I2" t="n">
         <v>0.04000000000000001</v>
@@ -589,8 +589,8 @@
       <c r="P2" t="n">
         <v>0.4680519470663282</v>
       </c>
-      <c r="Q2" s="1" t="n">
-        <v>8</v>
+      <c r="Q2" t="n">
+        <v>5</v>
       </c>
       <c r="R2" s="1" t="n">
         <v>1.778747513382372</v>
@@ -604,8 +604,8 @@
       <c r="U2" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V2" s="1" t="n">
-        <v>0.83675541816258</v>
+      <c r="V2" t="n">
+        <v>0.8574191573061893</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         <v>-0.2147622108459473</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>3.30560182848101</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>8</v>
@@ -630,8 +630,8 @@
       <c r="G3" t="n">
         <v>0.8695652173913043</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <v>5</v>
+      <c r="H3" t="n">
+        <v>15</v>
       </c>
       <c r="I3" t="n">
         <v>0.1111111111111111</v>
@@ -657,8 +657,8 @@
       <c r="P3" t="n">
         <v>0.7027748523460556</v>
       </c>
-      <c r="Q3" s="1" t="n">
-        <v>15</v>
+      <c r="Q3" t="n">
+        <v>5</v>
       </c>
       <c r="R3" t="n">
         <v>1.73023804570537</v>
@@ -672,8 +672,8 @@
       <c r="U3" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V3" s="1" t="n">
-        <v>0.6661598584833751</v>
+      <c r="V3" t="n">
+        <v>0.6826107272137758</v>
       </c>
     </row>
     <row r="4">
@@ -684,7 +684,7 @@
         <v>-0.08585639297962189</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>1.826515920865064</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>5</v>
@@ -699,7 +699,7 @@
         <v>0.9130434782608695</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>0.03401360544217687</v>
@@ -725,8 +725,8 @@
       <c r="P4" t="n">
         <v>0.3105674139582154</v>
       </c>
-      <c r="Q4" s="1" t="n">
-        <v>4</v>
+      <c r="Q4" t="n">
+        <v>5</v>
       </c>
       <c r="R4" s="1" t="n">
         <v>1.836011552168369</v>
@@ -740,8 +740,8 @@
       <c r="U4" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V4" s="1" t="n">
-        <v>0.8650730109199346</v>
+      <c r="V4" t="n">
+        <v>0.8864360551857</v>
       </c>
     </row>
     <row r="5">
@@ -752,7 +752,7 @@
         <v>-0.4500797390937805</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>3.228657949064056</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>10</v>
@@ -766,8 +766,8 @@
       <c r="G5" t="n">
         <v>0.8695652173913043</v>
       </c>
-      <c r="H5" s="1" t="n">
-        <v>6</v>
+      <c r="H5" t="n">
+        <v>13</v>
       </c>
       <c r="I5" t="n">
         <v>0.1111111111111111</v>
@@ -793,8 +793,8 @@
       <c r="P5" t="n">
         <v>0.804047159219282</v>
       </c>
-      <c r="Q5" s="1" t="n">
-        <v>13</v>
+      <c r="Q5" t="n">
+        <v>6</v>
       </c>
       <c r="R5" t="n">
         <v>1.605420035791506</v>
@@ -808,8 +808,8 @@
       <c r="U5" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V5" s="1" t="n">
-        <v>0.64830914455489</v>
+      <c r="V5" t="n">
+        <v>0.6643191885375342</v>
       </c>
     </row>
     <row r="6">
@@ -820,7 +820,7 @@
         <v>0.5725660920143127</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>3.412123258519119</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>7</v>
@@ -834,8 +834,8 @@
       <c r="G6" t="n">
         <v>0.9130434782608695</v>
       </c>
-      <c r="H6" s="1" t="n">
-        <v>6</v>
+      <c r="H6" t="n">
+        <v>16</v>
       </c>
       <c r="I6" t="n">
         <v>0.1111111111111111</v>
@@ -861,8 +861,8 @@
       <c r="P6" t="n">
         <v>0.6754849824949913</v>
       </c>
-      <c r="Q6" s="1" t="n">
-        <v>16</v>
+      <c r="Q6" t="n">
+        <v>6</v>
       </c>
       <c r="R6" t="n">
         <v>1.73023804570537</v>
@@ -876,8 +876,8 @@
       <c r="U6" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V6" s="1" t="n">
-        <v>0.6579459846693219</v>
+      <c r="V6" t="n">
+        <v>0.6741940111567349</v>
       </c>
     </row>
     <row r="7">
@@ -888,7 +888,7 @@
         <v>-0.3925162255764008</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>2.345145650431858</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -944,8 +944,8 @@
       <c r="U7" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V7" s="1" t="n">
-        <v>0.7987001306267925</v>
+      <c r="V7" t="n">
+        <v>0.8184240915298243</v>
       </c>
     </row>
     <row r="8">
@@ -956,7 +956,7 @@
         <v>-0.142518475651741</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>2.111142837746413</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -970,8 +970,8 @@
       <c r="G8" t="n">
         <v>0.9130434782608695</v>
       </c>
-      <c r="H8" s="1" t="n">
-        <v>7</v>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>0.02666666666666668</v>
@@ -997,8 +997,8 @@
       <c r="P8" t="n">
         <v>0.5978962573702267</v>
       </c>
-      <c r="Q8" s="1" t="n">
-        <v>8</v>
+      <c r="Q8" t="n">
+        <v>7</v>
       </c>
       <c r="R8" s="1" t="n">
         <v>1.83902118125715</v>
@@ -1012,8 +1012,8 @@
       <c r="U8" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V8" s="1" t="n">
-        <v>0.8669421343245584</v>
+      <c r="V8" t="n">
+        <v>0.8883513367359682</v>
       </c>
     </row>
     <row r="9">
@@ -1024,7 +1024,7 @@
         <v>-0.3359417021274567</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>3.699873979105761</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>8</v>
@@ -1038,8 +1038,8 @@
       <c r="G9" t="n">
         <v>0.9130434782608695</v>
       </c>
-      <c r="H9" s="1" t="n">
-        <v>5</v>
+      <c r="H9" t="n">
+        <v>15</v>
       </c>
       <c r="I9" t="n">
         <v>0.1111111111111111</v>
@@ -1065,8 +1065,8 @@
       <c r="P9" t="n">
         <v>0.7373254361100833</v>
       </c>
-      <c r="Q9" s="1" t="n">
-        <v>15</v>
+      <c r="Q9" t="n">
+        <v>5</v>
       </c>
       <c r="R9" t="n">
         <v>1.73023804570537</v>
@@ -1080,8 +1080,8 @@
       <c r="U9" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V9" s="1" t="n">
-        <v>0.6138210068641288</v>
+      <c r="V9" t="n">
+        <v>0.6289793636448475</v>
       </c>
     </row>
     <row r="10">
@@ -1092,7 +1092,7 @@
         <v>0.7052313685417175</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>3.670459794708263</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>8</v>
@@ -1106,8 +1106,8 @@
       <c r="G10" t="n">
         <v>0.8260869565217391</v>
       </c>
-      <c r="H10" s="1" t="n">
-        <v>5</v>
+      <c r="H10" t="n">
+        <v>16</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>0.1111111111111111</v>
@@ -1133,8 +1133,8 @@
       <c r="P10" t="n">
         <v>0.7404830606197635</v>
       </c>
-      <c r="Q10" s="1" t="n">
-        <v>16</v>
+      <c r="Q10" t="n">
+        <v>5</v>
       </c>
       <c r="R10" t="n">
         <v>1.73023804570537</v>
@@ -1148,8 +1148,8 @@
       <c r="U10" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V10" s="1" t="n">
-        <v>0.6005775785608443</v>
+      <c r="V10" t="n">
+        <v>0.6154088878652204</v>
       </c>
     </row>
     <row r="11">
@@ -1160,7 +1160,7 @@
         <v>-0.1334540843963623</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>3.139428647999336</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
@@ -1174,8 +1174,8 @@
       <c r="G11" t="n">
         <v>0.9130434782608695</v>
       </c>
-      <c r="H11" s="1" t="n">
-        <v>4</v>
+      <c r="H11" t="n">
+        <v>13</v>
       </c>
       <c r="I11" t="n">
         <v>0.1111111111111111</v>
@@ -1201,8 +1201,8 @@
       <c r="P11" t="n">
         <v>0.8302763920018271</v>
       </c>
-      <c r="Q11" s="1" t="n">
-        <v>13</v>
+      <c r="Q11" t="n">
+        <v>4</v>
       </c>
       <c r="R11" t="n">
         <v>1.483611654966423</v>
@@ -1216,8 +1216,8 @@
       <c r="U11" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V11" s="1" t="n">
-        <v>0.6521309403572546</v>
+      <c r="V11" t="n">
+        <v>0.6682353638799723</v>
       </c>
     </row>
     <row r="12">
@@ -1228,7 +1228,7 @@
         <v>-0.3635061681270599</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>2.844096786204584</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>8</v>
@@ -1242,8 +1242,8 @@
       <c r="G12" t="n">
         <v>0.8695652173913043</v>
       </c>
-      <c r="H12" s="1" t="n">
-        <v>4</v>
+      <c r="H12" t="n">
+        <v>11</v>
       </c>
       <c r="I12" t="n">
         <v>0.1111111111111111</v>
@@ -1269,8 +1269,8 @@
       <c r="P12" t="n">
         <v>0.7186019519514407</v>
       </c>
-      <c r="Q12" s="1" t="n">
-        <v>11</v>
+      <c r="Q12" t="n">
+        <v>4</v>
       </c>
       <c r="R12" t="n">
         <v>1.911059049329703</v>
@@ -1284,8 +1284,8 @@
       <c r="U12" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V12" s="1" t="n">
-        <v>0.7370563993323642</v>
+      <c r="V12" t="n">
+        <v>0.7552580635694194</v>
       </c>
     </row>
     <row r="13">
@@ -1296,7 +1296,7 @@
         <v>-1.514761924743652</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>3.101766260610153</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>8</v>
@@ -1311,7 +1311,7 @@
         <v>0.9565217391304348</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I13" t="n">
         <v>0.1111111111111111</v>
@@ -1337,8 +1337,8 @@
       <c r="P13" t="n">
         <v>0.6788710458531927</v>
       </c>
-      <c r="Q13" s="1" t="n">
-        <v>17</v>
+      <c r="Q13" t="n">
+        <v>5</v>
       </c>
       <c r="R13" t="n">
         <v>1.790511713580148</v>
@@ -1352,8 +1352,8 @@
       <c r="U13" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V13" s="1" t="n">
-        <v>0.6983743624362077</v>
+      <c r="V13" t="n">
+        <v>0.7156207708092244</v>
       </c>
     </row>
     <row r="14">
@@ -1364,7 +1364,7 @@
         <v>0.5681732892990112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>3.389178070572481</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>8</v>
@@ -1378,8 +1378,8 @@
       <c r="G14" t="n">
         <v>0.8695652173913043</v>
       </c>
-      <c r="H14" s="1" t="n">
-        <v>6</v>
+      <c r="H14" t="n">
+        <v>15</v>
       </c>
       <c r="I14" t="n">
         <v>0.1111111111111111</v>
@@ -1405,8 +1405,8 @@
       <c r="P14" t="n">
         <v>0.6784647622519333</v>
       </c>
-      <c r="Q14" s="1" t="n">
-        <v>15</v>
+      <c r="Q14" t="n">
+        <v>6</v>
       </c>
       <c r="R14" t="n">
         <v>1.73023804570537</v>
@@ -1420,8 +1420,8 @@
       <c r="U14" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V14" s="1" t="n">
-        <v>0.6650094846093758</v>
+      <c r="V14" t="n">
+        <v>0.6814319447688442</v>
       </c>
     </row>
     <row r="15">
@@ -1432,7 +1432,7 @@
         <v>0.6141835153102875</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>3.396970569549217</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         <v>0.8260869565217391</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I15" t="n">
         <v>0.1111111111111111</v>
@@ -1473,8 +1473,8 @@
       <c r="P15" t="n">
         <v>0.7637942340039413</v>
       </c>
-      <c r="Q15" s="1" t="n">
-        <v>16</v>
+      <c r="Q15" t="n">
+        <v>3</v>
       </c>
       <c r="R15" t="n">
         <v>1.665693703666284</v>
@@ -1488,8 +1488,8 @@
       <c r="U15" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V15" s="1" t="n">
-        <v>0.641250713759876</v>
+      <c r="V15" t="n">
+        <v>0.65708644925339</v>
       </c>
     </row>
     <row r="16">
@@ -1500,7 +1500,7 @@
         <v>-0.4390748143196106</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>3.246445256388673</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>8</v>
@@ -1515,7 +1515,7 @@
         <v>0.8695652173913043</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I16" t="n">
         <v>0.1111111111111111</v>
@@ -1541,8 +1541,8 @@
       <c r="P16" t="n">
         <v>0.6834612805791206</v>
       </c>
-      <c r="Q16" s="1" t="n">
-        <v>16</v>
+      <c r="Q16" t="n">
+        <v>4</v>
       </c>
       <c r="R16" t="n">
         <v>1.73023804570537</v>
@@ -1556,8 +1556,8 @@
       <c r="U16" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V16" s="1" t="n">
-        <v>0.6684719718814343</v>
+      <c r="V16" t="n">
+        <v>0.6849799384292986</v>
       </c>
     </row>
     <row r="17">
@@ -1568,7 +1568,7 @@
         <v>-0.4183956980705261</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>2.384560970775679</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -1624,19 +1624,19 @@
       <c r="U17" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V17" s="1" t="n">
-        <v>0.7485155768993137</v>
+      <c r="V17" t="n">
+        <v>0.7670002264041113</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>-0.0836450606584549</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" t="n">
         <v>0.7695344835519791</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>3.514985837357224</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>6</v>
@@ -1651,7 +1651,7 @@
         <v>0.9565217391304348</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I18" t="n">
         <v>0.1111111111111111</v>
@@ -1677,8 +1677,8 @@
       <c r="P18" t="n">
         <v>0.6190143854148003</v>
       </c>
-      <c r="Q18" s="1" t="n">
-        <v>8</v>
+      <c r="Q18" t="n">
+        <v>5</v>
       </c>
       <c r="R18" t="n">
         <v>1.778747513382372</v>
@@ -1692,8 +1692,8 @@
       <c r="U18" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V18" s="1" t="n">
-        <v>0.7044351695646405</v>
+      <c r="V18" t="n">
+        <v>0.7218312500339272</v>
       </c>
     </row>
     <row r="19">
@@ -1704,7 +1704,7 @@
         <v>-0.3625948131084442</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>3.588830240880397</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>6</v>
@@ -1719,7 +1719,7 @@
         <v>0.8260869565217391</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I19" t="n">
         <v>0.1666666666666667</v>
@@ -1745,8 +1745,8 @@
       <c r="P19" t="n">
         <v>0.6217645988052942</v>
       </c>
-      <c r="Q19" s="1" t="n">
-        <v>7</v>
+      <c r="Q19" t="n">
+        <v>4</v>
       </c>
       <c r="R19" t="n">
         <v>1.714203171343286</v>
@@ -1760,8 +1760,8 @@
       <c r="U19" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V19" s="1" t="n">
-        <v>0.6885317715154339</v>
+      <c r="V19" t="n">
+        <v>0.7055351163517595</v>
       </c>
     </row>
     <row r="20">
@@ -1772,7 +1772,7 @@
         <v>-0.4143381118774414</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>3.280512040827034</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>10</v>
@@ -1787,7 +1787,7 @@
         <v>0.7826086956521739</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I20" t="n">
         <v>0.1111111111111111</v>
@@ -1813,8 +1813,8 @@
       <c r="P20" t="n">
         <v>0.8088382236805132</v>
       </c>
-      <c r="Q20" s="1" t="n">
-        <v>16</v>
+      <c r="Q20" t="n">
+        <v>5</v>
       </c>
       <c r="R20" t="n">
         <v>1.483611654966423</v>
@@ -1828,8 +1828,8 @@
       <c r="U20" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V20" s="1" t="n">
-        <v>0.6302777775694512</v>
+      <c r="V20" t="n">
+        <v>0.6458425355632602</v>
       </c>
     </row>
     <row r="21">
@@ -1840,7 +1840,7 @@
         <v>0.5762799978256226</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>3.676215314762354</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>8</v>
@@ -1854,8 +1854,8 @@
       <c r="G21" t="n">
         <v>0.7826086956521739</v>
       </c>
-      <c r="H21" s="1" t="n">
-        <v>6</v>
+      <c r="H21" t="n">
+        <v>15</v>
       </c>
       <c r="I21" s="1" t="n">
         <v>0.1111111111111111</v>
@@ -1881,8 +1881,8 @@
       <c r="P21" t="n">
         <v>0.7202343528225197</v>
       </c>
-      <c r="Q21" s="1" t="n">
-        <v>15</v>
+      <c r="Q21" t="n">
+        <v>6</v>
       </c>
       <c r="R21" t="n">
         <v>1.73023804570537</v>
@@ -1896,8 +1896,8 @@
       <c r="U21" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V21" s="1" t="n">
-        <v>0.6335793307294701</v>
+      <c r="V21" t="n">
+        <v>0.6492256208314514</v>
       </c>
     </row>
     <row r="22">
@@ -1908,7 +1908,7 @@
         <v>1.023428201675415</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>3.356710081026564</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>8</v>
@@ -1922,8 +1922,8 @@
       <c r="G22" t="n">
         <v>0.8260869565217391</v>
       </c>
-      <c r="H22" s="1" t="n">
-        <v>5</v>
+      <c r="H22" t="n">
+        <v>15</v>
       </c>
       <c r="I22" t="n">
         <v>0.1111111111111111</v>
@@ -1949,8 +1949,8 @@
       <c r="P22" t="n">
         <v>0.7093218955161197</v>
       </c>
-      <c r="Q22" s="1" t="n">
-        <v>15</v>
+      <c r="Q22" t="n">
+        <v>5</v>
       </c>
       <c r="R22" t="n">
         <v>1.790511713580148</v>
@@ -1964,8 +1964,8 @@
       <c r="U22" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V22" s="1" t="n">
-        <v>0.6511065600306005</v>
+      <c r="V22" t="n">
+        <v>0.667185686402688</v>
       </c>
     </row>
     <row r="23">
@@ -1976,7 +1976,7 @@
         <v>0.6457960605621338</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>2.949372144650085</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>8</v>
@@ -1991,7 +1991,7 @@
         <v>0.9130434782608695</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I23" t="n">
         <v>0.1111111111111111</v>
@@ -2017,8 +2017,8 @@
       <c r="P23" t="n">
         <v>0.7978298655752953</v>
       </c>
-      <c r="Q23" s="1" t="n">
-        <v>16</v>
+      <c r="Q23" t="n">
+        <v>6</v>
       </c>
       <c r="R23" t="n">
         <v>1.483611654966423</v>
@@ -2032,8 +2032,8 @@
       <c r="U23" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V23" s="1" t="n">
-        <v>0.650165701616685</v>
+      <c r="V23" t="n">
+        <v>0.6662215934181749</v>
       </c>
     </row>
     <row r="24">
@@ -2044,7 +2044,7 @@
         <v>0.4680100083351135</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>3.140384506128961</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>7</v>
@@ -2059,7 +2059,7 @@
         <v>0.8695652173913043</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I24" t="n">
         <v>0.1111111111111111</v>
@@ -2085,8 +2085,8 @@
       <c r="P24" t="n">
         <v>0.6923145921415631</v>
       </c>
-      <c r="Q24" s="1" t="n">
-        <v>17</v>
+      <c r="Q24" t="n">
+        <v>5</v>
       </c>
       <c r="R24" t="n">
         <v>1.790511713580148</v>
@@ -2100,8 +2100,8 @@
       <c r="U24" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V24" s="1" t="n">
-        <v>0.6634989640766628</v>
+      <c r="V24" t="n">
+        <v>0.6798841218158759</v>
       </c>
     </row>
     <row r="25">
@@ -2112,7 +2112,7 @@
         <v>-0.1740318139394124</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>3.478566781820282</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>8</v>
@@ -2127,7 +2127,7 @@
         <v>0.9130434782608695</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I25" t="n">
         <v>0.1111111111111111</v>
@@ -2153,8 +2153,8 @@
       <c r="P25" t="n">
         <v>0.656506326906396</v>
       </c>
-      <c r="Q25" s="1" t="n">
-        <v>16</v>
+      <c r="Q25" t="n">
+        <v>4</v>
       </c>
       <c r="R25" t="n">
         <v>1.605420035791506</v>
@@ -2168,8 +2168,8 @@
       <c r="U25" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V25" s="1" t="n">
-        <v>0.6830557184245316</v>
+      <c r="V25" t="n">
+        <v>0.6999238317103339</v>
       </c>
     </row>
     <row r="26">
@@ -2180,7 +2180,7 @@
         <v>0.3508234620094299</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>3.00464348729393</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>7</v>
@@ -2194,8 +2194,8 @@
       <c r="G26" t="n">
         <v>0.9565217391304348</v>
       </c>
-      <c r="H26" s="1" t="n">
-        <v>5</v>
+      <c r="H26" t="n">
+        <v>16</v>
       </c>
       <c r="I26" t="n">
         <v>0.0625</v>
@@ -2221,8 +2221,8 @@
       <c r="P26" t="n">
         <v>0.6636836025590529</v>
       </c>
-      <c r="Q26" s="1" t="n">
-        <v>16</v>
+      <c r="Q26" t="n">
+        <v>5</v>
       </c>
       <c r="R26" t="n">
         <v>1.73023804570537</v>
@@ -2236,8 +2236,8 @@
       <c r="U26" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V26" s="1" t="n">
-        <v>0.6896461033058153</v>
+      <c r="V26" t="n">
+        <v>0.7066769666510576</v>
       </c>
     </row>
     <row r="27">
@@ -2248,7 +2248,7 @@
         <v>-0.3646472990512848</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>1.987323928389954</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
@@ -2262,8 +2262,8 @@
       <c r="G27" t="n">
         <v>0.9565217391304348</v>
       </c>
-      <c r="H27" s="1" t="n">
-        <v>5</v>
+      <c r="H27" t="n">
+        <v>7</v>
       </c>
       <c r="I27" t="n">
         <v>0.04000000000000001</v>
@@ -2289,8 +2289,8 @@
       <c r="P27" t="n">
         <v>0.4337770710588943</v>
       </c>
-      <c r="Q27" s="1" t="n">
-        <v>7</v>
+      <c r="Q27" t="n">
+        <v>5</v>
       </c>
       <c r="R27" t="n">
         <v>1.83902118125715</v>
@@ -2304,8 +2304,8 @@
       <c r="U27" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V27" s="1" t="n">
-        <v>0.9075594004019465</v>
+      <c r="V27" t="n">
+        <v>0.9299716493102558</v>
       </c>
     </row>
     <row r="28">
@@ -2316,7 +2316,7 @@
         <v>0.3304328322410583</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>3.071363883181471</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>7</v>
@@ -2330,8 +2330,8 @@
       <c r="G28" t="n">
         <v>0.8260869565217391</v>
       </c>
-      <c r="H28" s="1" t="n">
-        <v>4</v>
+      <c r="H28" t="n">
+        <v>15</v>
       </c>
       <c r="I28" t="n">
         <v>0.1111111111111111</v>
@@ -2357,8 +2357,8 @@
       <c r="P28" t="n">
         <v>0.6743069499229292</v>
       </c>
-      <c r="Q28" s="1" t="n">
-        <v>15</v>
+      <c r="Q28" t="n">
+        <v>4</v>
       </c>
       <c r="R28" t="n">
         <v>1.73023804570537</v>
@@ -2372,19 +2372,19 @@
       <c r="U28" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V28" s="1" t="n">
-        <v>0.6843983003032706</v>
+      <c r="V28" t="n">
+        <v>0.7012995687514046</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>1.058463215827942</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" t="n">
         <v>1.2090744972229</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>2.919894663659235</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>9</v>
@@ -2398,8 +2398,8 @@
       <c r="G29" t="n">
         <v>0.9565217391304348</v>
       </c>
-      <c r="H29" s="1" t="n">
-        <v>5</v>
+      <c r="H29" t="n">
+        <v>12</v>
       </c>
       <c r="I29" t="n">
         <v>0.1111111111111111</v>
@@ -2425,8 +2425,8 @@
       <c r="P29" t="n">
         <v>0.8349861566943183</v>
       </c>
-      <c r="Q29" s="1" t="n">
-        <v>12</v>
+      <c r="Q29" t="n">
+        <v>5</v>
       </c>
       <c r="R29" t="n">
         <v>1.714203171343286</v>
@@ -2440,8 +2440,8 @@
       <c r="U29" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V29" s="1" t="n">
-        <v>0.6592202618662243</v>
+      <c r="V29" t="n">
+        <v>0.6754997567266193</v>
       </c>
     </row>
     <row r="30">
@@ -2452,7 +2452,7 @@
         <v>0.3232825696468353</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>3.157133396010675</v>
+        <v>4</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>8</v>
@@ -2467,7 +2467,7 @@
         <v>0.9130434782608695</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I30" t="n">
         <v>0.1111111111111111</v>
@@ -2493,8 +2493,8 @@
       <c r="P30" t="n">
         <v>0.7789099676396366</v>
       </c>
-      <c r="Q30" s="1" t="n">
-        <v>16</v>
+      <c r="Q30" t="n">
+        <v>5</v>
       </c>
       <c r="R30" t="n">
         <v>1.605420035791506</v>
@@ -2508,8 +2508,8 @@
       <c r="U30" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V30" s="1" t="n">
-        <v>0.6357230137414817</v>
+      <c r="V30" t="n">
+        <v>0.651422242259642</v>
       </c>
     </row>
     <row r="31">
@@ -2520,7 +2520,7 @@
         <v>0.3791253566741943</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>3.35557658420413</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>8</v>
@@ -2535,7 +2535,7 @@
         <v>0.8260869565217391</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I31" t="n">
         <v>0.1111111111111111</v>
@@ -2561,8 +2561,8 @@
       <c r="P31" t="n">
         <v>0.6814860262368827</v>
       </c>
-      <c r="Q31" s="1" t="n">
-        <v>16</v>
+      <c r="Q31" t="n">
+        <v>4</v>
       </c>
       <c r="R31" t="n">
         <v>1.665693703666284</v>
@@ -2576,8 +2576,8 @@
       <c r="U31" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V31" s="1" t="n">
-        <v>0.6692841971169188</v>
+      <c r="V31" t="n">
+        <v>0.6858122216291865</v>
       </c>
     </row>
     <row r="32">
@@ -2588,7 +2588,7 @@
         <v>1.027211666107178</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>3.56157308482224</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>8</v>
@@ -2602,8 +2602,8 @@
       <c r="G32" t="n">
         <v>0.9130434782608695</v>
       </c>
-      <c r="H32" s="1" t="n">
-        <v>5</v>
+      <c r="H32" t="n">
+        <v>15</v>
       </c>
       <c r="I32" t="n">
         <v>0.1111111111111111</v>
@@ -2629,8 +2629,8 @@
       <c r="P32" t="n">
         <v>0.7112305104666558</v>
       </c>
-      <c r="Q32" s="1" t="n">
-        <v>15</v>
+      <c r="Q32" t="n">
+        <v>5</v>
       </c>
       <c r="R32" t="n">
         <v>1.73023804570537</v>
@@ -2644,8 +2644,8 @@
       <c r="U32" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V32" s="1" t="n">
-        <v>0.6403723036187963</v>
+      <c r="V32" t="n">
+        <v>0.6561863467065937</v>
       </c>
     </row>
     <row r="33">
@@ -2656,7 +2656,7 @@
         <v>-0.7519186735153198</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>2.25624815081696</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>5</v>
@@ -2670,8 +2670,8 @@
       <c r="G33" t="n">
         <v>0.9130434782608695</v>
       </c>
-      <c r="H33" s="1" t="n">
-        <v>6</v>
+      <c r="H33" t="n">
+        <v>5</v>
       </c>
       <c r="I33" s="1" t="n">
         <v>0.06666666666666668</v>
@@ -2697,8 +2697,8 @@
       <c r="P33" t="n">
         <v>0.39634075014939</v>
       </c>
-      <c r="Q33" s="1" t="n">
-        <v>5</v>
+      <c r="Q33" t="n">
+        <v>6</v>
       </c>
       <c r="R33" t="n">
         <v>1.885299500946812</v>
@@ -2712,8 +2712,8 @@
       <c r="U33" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V33" s="1" t="n">
-        <v>0.8174712223479225</v>
+      <c r="V33" t="n">
+        <v>0.8376587367987973</v>
       </c>
     </row>
     <row r="34">
@@ -2724,7 +2724,7 @@
         <v>-1.377173662185669</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>3.02826646812178</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>10</v>
@@ -2738,8 +2738,8 @@
       <c r="G34" t="n">
         <v>0.8260869565217391</v>
       </c>
-      <c r="H34" s="1" t="n">
-        <v>6</v>
+      <c r="H34" t="n">
+        <v>13</v>
       </c>
       <c r="I34" t="n">
         <v>0.1111111111111111</v>
@@ -2765,8 +2765,8 @@
       <c r="P34" t="n">
         <v>0.8486668508358579</v>
       </c>
-      <c r="Q34" s="1" t="n">
-        <v>13</v>
+      <c r="Q34" t="n">
+        <v>6</v>
       </c>
       <c r="R34" t="n">
         <v>1.483611654966423</v>
@@ -2780,8 +2780,8 @@
       <c r="U34" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V34" s="1" t="n">
-        <v>0.635935610366822</v>
+      <c r="V34" t="n">
+        <v>0.6516400889749291</v>
       </c>
     </row>
     <row r="35">
@@ -2792,7 +2792,7 @@
         <v>-0.8767848014831543</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>3.448647572558811</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>6</v>
@@ -2807,7 +2807,7 @@
         <v>0.9565217391304348</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I35" t="n">
         <v>0.1111111111111111</v>
@@ -2833,8 +2833,8 @@
       <c r="P35" t="n">
         <v>0.6054045887584985</v>
       </c>
-      <c r="Q35" s="1" t="n">
-        <v>7</v>
+      <c r="Q35" t="n">
+        <v>4</v>
       </c>
       <c r="R35" t="n">
         <v>1.714203171343286</v>
@@ -2848,8 +2848,8 @@
       <c r="U35" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V35" s="1" t="n">
-        <v>0.7222017470467508</v>
+      <c r="V35" t="n">
+        <v>0.7400365745078062</v>
       </c>
     </row>
     <row r="36">
@@ -2860,7 +2860,7 @@
         <v>0.1222102642059326</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>2.059448363936612</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>6</v>
@@ -2874,8 +2874,8 @@
       <c r="G36" t="n">
         <v>0.9565217391304348</v>
       </c>
-      <c r="H36" s="1" t="n">
-        <v>5</v>
+      <c r="H36" t="n">
+        <v>7</v>
       </c>
       <c r="I36" s="1" t="n">
         <v>0.04000000000000001</v>
@@ -2901,8 +2901,8 @@
       <c r="P36" t="n">
         <v>0.5705471799181075</v>
       </c>
-      <c r="Q36" s="1" t="n">
-        <v>7</v>
+      <c r="Q36" t="n">
+        <v>5</v>
       </c>
       <c r="R36" s="1" t="n">
         <v>1.813261632874258</v>
@@ -2916,8 +2916,8 @@
       <c r="U36" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V36" s="1" t="n">
-        <v>0.8744251823984155</v>
+      <c r="V36" t="n">
+        <v>0.8960191792551805</v>
       </c>
     </row>
     <row r="37">
@@ -2928,7 +2928,7 @@
         <v>-1.35373067855835</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>3.322914692736227</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>10</v>
@@ -2943,7 +2943,7 @@
         <v>0.7826086956521739</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I37" t="n">
         <v>0.1111111111111111</v>
@@ -2969,8 +2969,8 @@
       <c r="P37" t="n">
         <v>0.8204341074181251</v>
       </c>
-      <c r="Q37" s="1" t="n">
-        <v>16</v>
+      <c r="Q37" t="n">
+        <v>6</v>
       </c>
       <c r="R37" t="n">
         <v>1.605420035791506</v>
@@ -2984,8 +2984,8 @@
       <c r="U37" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V37" s="1" t="n">
-        <v>0.6291603062906093</v>
+      <c r="V37" t="n">
+        <v>0.6446974682455934</v>
       </c>
     </row>
     <row r="38">
@@ -2996,7 +2996,7 @@
         <v>0.06383097171783447</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>3.890404192759681</v>
+        <v>4</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>16</v>
@@ -3010,8 +3010,8 @@
       <c r="G38" t="n">
         <v>0.9130434782608695</v>
       </c>
-      <c r="H38" s="1" t="n">
-        <v>4</v>
+      <c r="H38" t="n">
+        <v>15</v>
       </c>
       <c r="I38" s="1" t="n">
         <v>0.1111111111111111</v>
@@ -3037,8 +3037,8 @@
       <c r="P38" t="n">
         <v>0.7641136498668536</v>
       </c>
-      <c r="Q38" s="1" t="n">
-        <v>15</v>
+      <c r="Q38" t="n">
+        <v>4</v>
       </c>
       <c r="R38" t="n">
         <v>1.790511713580148</v>
@@ -3052,8 +3052,8 @@
       <c r="U38" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V38" s="1" t="n">
-        <v>0.5868051223459461</v>
+      <c r="V38" t="n">
+        <v>0.6012963197891809</v>
       </c>
     </row>
     <row r="39">
@@ -3064,7 +3064,7 @@
         <v>0.005945734679698944</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>1.960944948771042</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>6</v>
@@ -3078,8 +3078,8 @@
       <c r="G39" t="n">
         <v>0.9130434782608695</v>
       </c>
-      <c r="H39" s="1" t="n">
-        <v>5</v>
+      <c r="H39" t="n">
+        <v>7</v>
       </c>
       <c r="I39" s="1" t="n">
         <v>0.02666666666666668</v>
@@ -3105,8 +3105,8 @@
       <c r="P39" t="n">
         <v>0.5202304725836779</v>
       </c>
-      <c r="Q39" s="1" t="n">
-        <v>7</v>
+      <c r="Q39" t="n">
+        <v>5</v>
       </c>
       <c r="R39" t="n">
         <v>1.73023804570537</v>
@@ -3120,8 +3120,8 @@
       <c r="U39" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V39" s="1" t="n">
-        <v>0.9329675001352364</v>
+      <c r="V39" t="n">
+        <v>0.9560072040126173</v>
       </c>
     </row>
     <row r="40">
@@ -3132,7 +3132,7 @@
         <v>0.5940335988998413</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>3.502617908531362</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>8</v>
@@ -3147,7 +3147,7 @@
         <v>0.9130434782608695</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I40" s="1" t="n">
         <v>0.1111111111111111</v>
@@ -3173,8 +3173,8 @@
       <c r="P40" t="n">
         <v>0.6995154028463711</v>
       </c>
-      <c r="Q40" s="1" t="n">
-        <v>16</v>
+      <c r="Q40" t="n">
+        <v>6</v>
       </c>
       <c r="R40" t="n">
         <v>1.665693703666284</v>
@@ -3188,8 +3188,8 @@
       <c r="U40" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V40" s="1" t="n">
-        <v>0.6480806958215264</v>
+      <c r="V40" t="n">
+        <v>0.6640850982452019</v>
       </c>
     </row>
     <row r="41">
@@ -3200,7 +3200,7 @@
         <v>0.2458418309688568</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>3.582126422911973</v>
+        <v>4</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>12</v>
@@ -3214,8 +3214,8 @@
       <c r="G41" t="n">
         <v>0.9565217391304348</v>
       </c>
-      <c r="H41" s="1" t="n">
-        <v>5</v>
+      <c r="H41" t="n">
+        <v>15</v>
       </c>
       <c r="I41" t="n">
         <v>0.1111111111111111</v>
@@ -3241,8 +3241,8 @@
       <c r="P41" t="n">
         <v>0.8315490457628903</v>
       </c>
-      <c r="Q41" s="1" t="n">
-        <v>15</v>
+      <c r="Q41" t="n">
+        <v>5</v>
       </c>
       <c r="R41" t="n">
         <v>1.605420035791506</v>
@@ -3256,8 +3256,8 @@
       <c r="U41" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V41" s="1" t="n">
-        <v>0.5901100887283176</v>
+      <c r="V41" t="n">
+        <v>0.6046829025695121</v>
       </c>
     </row>
     <row r="42">
@@ -3268,7 +3268,7 @@
         <v>-0.5533497830231985</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>2.909314748961238</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>5</v>
@@ -3282,8 +3282,8 @@
       <c r="G42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" s="1" t="n">
-        <v>5</v>
+      <c r="H42" t="n">
+        <v>6</v>
       </c>
       <c r="I42" t="n">
         <v>0.1041666666666667</v>
@@ -3309,8 +3309,8 @@
       <c r="P42" t="n">
         <v>0.4987382332235186</v>
       </c>
-      <c r="Q42" s="1" t="n">
-        <v>6</v>
+      <c r="Q42" t="n">
+        <v>5</v>
       </c>
       <c r="R42" t="n">
         <v>1.714203171343286</v>
@@ -3324,8 +3324,8 @@
       <c r="U42" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V42" s="1" t="n">
-        <v>0.8273935895550478</v>
+      <c r="V42" t="n">
+        <v>0.847826137624116</v>
       </c>
     </row>
     <row r="43">
@@ -3336,7 +3336,7 @@
         <v>-0.2013241052627563</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>3.05564758005983</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>7</v>
@@ -3350,8 +3350,8 @@
       <c r="G43" t="n">
         <v>0.8260869565217391</v>
       </c>
-      <c r="H43" s="1" t="n">
-        <v>5</v>
+      <c r="H43" t="n">
+        <v>15</v>
       </c>
       <c r="I43" t="n">
         <v>0.0625</v>
@@ -3377,8 +3377,8 @@
       <c r="P43" t="n">
         <v>0.6574177797632969</v>
       </c>
-      <c r="Q43" s="1" t="n">
-        <v>15</v>
+      <c r="Q43" t="n">
+        <v>5</v>
       </c>
       <c r="R43" t="n">
         <v>1.73023804570537</v>
@@ -3392,8 +3392,8 @@
       <c r="U43" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V43" s="1" t="n">
-        <v>0.6902736568580091</v>
+      <c r="V43" t="n">
+        <v>0.7073200176862909</v>
       </c>
     </row>
     <row r="44">
@@ -3404,7 +3404,7 @@
         <v>-1.386887311935425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>3.40054842256667</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>9</v>
@@ -3419,7 +3419,7 @@
         <v>0.9565217391304348</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I44" t="n">
         <v>0.1111111111111111</v>
@@ -3445,8 +3445,8 @@
       <c r="P44" t="n">
         <v>0.8321812764474428</v>
       </c>
-      <c r="Q44" s="1" t="n">
-        <v>16</v>
+      <c r="Q44" t="n">
+        <v>5</v>
       </c>
       <c r="R44" t="n">
         <v>1.483611654966423</v>
@@ -3460,8 +3460,8 @@
       <c r="U44" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V44" s="1" t="n">
-        <v>0.605031158695595</v>
+      <c r="V44" t="n">
+        <v>0.6199724495025251</v>
       </c>
     </row>
     <row r="45">
@@ -3472,7 +3472,7 @@
         <v>0.1232104301452637</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>2.072244402764951</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>7</v>
@@ -3486,8 +3486,8 @@
       <c r="G45" t="n">
         <v>1</v>
       </c>
-      <c r="H45" s="1" t="n">
-        <v>5</v>
+      <c r="H45" t="n">
+        <v>9</v>
       </c>
       <c r="I45" s="1" t="n">
         <v>0.08000000000000002</v>
@@ -3513,8 +3513,8 @@
       <c r="P45" t="n">
         <v>0.543849356713797</v>
       </c>
-      <c r="Q45" s="1" t="n">
-        <v>9</v>
+      <c r="Q45" t="n">
+        <v>5</v>
       </c>
       <c r="R45" s="1" t="n">
         <v>1.548155997005509</v>
@@ -3528,8 +3528,8 @@
       <c r="U45" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V45" s="1" t="n">
-        <v>0.8506350837309871</v>
+      <c r="V45" t="n">
+        <v>0.8716415822789345</v>
       </c>
     </row>
     <row r="46">
@@ -3540,7 +3540,7 @@
         <v>-0.4117159843444824</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>3.374829200679033</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>8</v>
@@ -3554,8 +3554,8 @@
       <c r="G46" t="n">
         <v>0.8260869565217391</v>
       </c>
-      <c r="H46" s="1" t="n">
-        <v>4</v>
+      <c r="H46" t="n">
+        <v>15</v>
       </c>
       <c r="I46" s="1" t="n">
         <v>0.1111111111111111</v>
@@ -3581,8 +3581,8 @@
       <c r="P46" t="n">
         <v>0.662297742741271</v>
       </c>
-      <c r="Q46" s="1" t="n">
-        <v>15</v>
+      <c r="Q46" t="n">
+        <v>4</v>
       </c>
       <c r="R46" t="n">
         <v>1.73023804570537</v>
@@ -3596,8 +3596,8 @@
       <c r="U46" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V46" s="1" t="n">
-        <v>0.6662679161478898</v>
+      <c r="V46" t="n">
+        <v>0.6827214533705925</v>
       </c>
     </row>
     <row r="47">
@@ -3608,7 +3608,7 @@
         <v>-1.343757629394531</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>2.99813146341499</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>9</v>
@@ -3622,8 +3622,8 @@
       <c r="G47" t="n">
         <v>0.8695652173913043</v>
       </c>
-      <c r="H47" s="1" t="n">
-        <v>5</v>
+      <c r="H47" t="n">
+        <v>13</v>
       </c>
       <c r="I47" t="n">
         <v>0.1111111111111111</v>
@@ -3649,8 +3649,8 @@
       <c r="P47" t="n">
         <v>0.8179327885082108</v>
       </c>
-      <c r="Q47" s="1" t="n">
-        <v>13</v>
+      <c r="Q47" t="n">
+        <v>5</v>
       </c>
       <c r="R47" t="n">
         <v>1.483611654966423</v>
@@ -3664,8 +3664,8 @@
       <c r="U47" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V47" s="1" t="n">
-        <v>0.6543345173352624</v>
+      <c r="V47" t="n">
+        <v>0.6704933583602372</v>
       </c>
     </row>
     <row r="48">
@@ -3676,7 +3676,7 @@
         <v>-0.5499176979064941</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>2.339796701539905</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>5</v>
@@ -3732,8 +3732,8 @@
       <c r="U48" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V48" s="1" t="n">
-        <v>0.8271754651982959</v>
+      <c r="V48" t="n">
+        <v>0.8476026266696666</v>
       </c>
     </row>
     <row r="49">
@@ -3744,7 +3744,7 @@
         <v>-0.3411079943180084</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>3.262997344743015</v>
+        <v>4</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>10</v>
@@ -3759,7 +3759,7 @@
         <v>0.9130434782608695</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I49" t="n">
         <v>0.1111111111111111</v>
@@ -3785,8 +3785,8 @@
       <c r="P49" t="n">
         <v>0.8115764439333524</v>
       </c>
-      <c r="Q49" s="1" t="n">
-        <v>16</v>
+      <c r="Q49" t="n">
+        <v>6</v>
       </c>
       <c r="R49" t="n">
         <v>1.483611654966423</v>
@@ -3800,8 +3800,8 @@
       <c r="U49" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V49" s="1" t="n">
-        <v>0.6275847342922503</v>
+      <c r="V49" t="n">
+        <v>0.6430829873760525</v>
       </c>
     </row>
     <row r="50">
@@ -3812,7 +3812,7 @@
         <v>-0.2267749011516571</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>2.46966112717284</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>7</v>
@@ -3826,8 +3826,8 @@
       <c r="G50" t="n">
         <v>0.8695652173913043</v>
       </c>
-      <c r="H50" s="1" t="n">
-        <v>4</v>
+      <c r="H50" t="n">
+        <v>5</v>
       </c>
       <c r="I50" t="n">
         <v>0.1041666666666667</v>
@@ -3853,8 +3853,8 @@
       <c r="P50" t="n">
         <v>0.4418276414378308</v>
       </c>
-      <c r="Q50" s="1" t="n">
-        <v>5</v>
+      <c r="Q50" t="n">
+        <v>4</v>
       </c>
       <c r="R50" s="1" t="n">
         <v>1.665693703666284</v>
@@ -3868,8 +3868,8 @@
       <c r="U50" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V50" s="1" t="n">
-        <v>0.7794775098306321</v>
+      <c r="V50" t="n">
+        <v>0.7987267666407276</v>
       </c>
     </row>
     <row r="51">
@@ -3880,7 +3880,7 @@
         <v>-0.3633207678794861</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>1.972691541567886</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>6</v>
@@ -3894,8 +3894,8 @@
       <c r="G51" t="n">
         <v>0.8260869565217391</v>
       </c>
-      <c r="H51" s="1" t="n">
-        <v>5</v>
+      <c r="H51" t="n">
+        <v>7</v>
       </c>
       <c r="I51" s="1" t="n">
         <v>0.04000000000000001</v>
@@ -3921,8 +3921,8 @@
       <c r="P51" t="n">
         <v>0.4280771712004225</v>
       </c>
-      <c r="Q51" s="1" t="n">
-        <v>7</v>
+      <c r="Q51" t="n">
+        <v>5</v>
       </c>
       <c r="R51" t="n">
         <v>1.548155997005509</v>
@@ -3936,8 +3936,8 @@
       <c r="U51" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V51" s="1" t="n">
-        <v>0.9128642833246349</v>
+      <c r="V51" t="n">
+        <v>0.9354075367230528</v>
       </c>
     </row>
     <row r="52">
@@ -3948,7 +3948,7 @@
         <v>0.6527048349380493</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>3.387388014394869</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>8</v>
@@ -3963,7 +3963,7 @@
         <v>0.9130434782608695</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I52" s="1" t="n">
         <v>0.1111111111111111</v>
@@ -3989,8 +3989,8 @@
       <c r="P52" t="n">
         <v>0.6796055464304638</v>
       </c>
-      <c r="Q52" s="1" t="n">
-        <v>16</v>
+      <c r="Q52" t="n">
+        <v>5</v>
       </c>
       <c r="R52" t="n">
         <v>1.548155997005509</v>
@@ -4004,8 +4004,8 @@
       <c r="U52" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V52" s="1" t="n">
-        <v>0.6672121894559961</v>
+      <c r="V52" t="n">
+        <v>0.6836890455803701</v>
       </c>
     </row>
     <row r="53">
@@ -4016,7 +4016,7 @@
         <v>-0.08114497363567352</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>2.152874034028877</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>7</v>
@@ -4030,8 +4030,8 @@
       <c r="G53" t="n">
         <v>0.9130434782608695</v>
       </c>
-      <c r="H53" s="1" t="n">
-        <v>6</v>
+      <c r="H53" t="n">
+        <v>7</v>
       </c>
       <c r="I53" s="1" t="n">
         <v>0.0625</v>
@@ -4057,8 +4057,8 @@
       <c r="P53" t="n">
         <v>0.5746041788589592</v>
       </c>
-      <c r="Q53" s="1" t="n">
-        <v>7</v>
+      <c r="Q53" t="n">
+        <v>6</v>
       </c>
       <c r="R53" t="n">
         <v>1.665693703666284</v>
@@ -4072,8 +4072,8 @@
       <c r="U53" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V53" s="1" t="n">
-        <v>0.8167532188690347</v>
+      <c r="V53" t="n">
+        <v>0.8369230021690024</v>
       </c>
     </row>
     <row r="54">
@@ -4084,7 +4084,7 @@
         <v>0.6170146465301514</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>3.057040802649207</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>8</v>
@@ -4099,7 +4099,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I54" t="n">
         <v>0.1111111111111111</v>
@@ -4125,8 +4125,8 @@
       <c r="P54" t="n">
         <v>0.7815817352682647</v>
       </c>
-      <c r="Q54" s="1" t="n">
-        <v>16</v>
+      <c r="Q54" t="n">
+        <v>6</v>
       </c>
       <c r="R54" t="n">
         <v>1.639934155283393</v>
@@ -4140,8 +4140,8 @@
       <c r="U54" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V54" s="1" t="n">
-        <v>0.6290438955262714</v>
+      <c r="V54" t="n">
+        <v>0.6445781827085135</v>
       </c>
     </row>
     <row r="55">
@@ -4152,7 +4152,7 @@
         <v>-0.1821102797985077</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>1.990439510243127</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>6</v>
@@ -4166,8 +4166,8 @@
       <c r="G55" t="n">
         <v>0.9130434782608695</v>
       </c>
-      <c r="H55" s="1" t="n">
-        <v>5</v>
+      <c r="H55" t="n">
+        <v>7</v>
       </c>
       <c r="I55" s="1" t="n">
         <v>0.02666666666666668</v>
@@ -4193,8 +4193,8 @@
       <c r="P55" t="n">
         <v>0.5265412832179288</v>
       </c>
-      <c r="Q55" s="1" t="n">
-        <v>7</v>
+      <c r="Q55" t="n">
+        <v>5</v>
       </c>
       <c r="R55" t="n">
         <v>1.73023804570537</v>
@@ -4208,19 +4208,19 @@
       <c r="U55" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V55" s="1" t="n">
-        <v>0.9114871685485055</v>
+      <c r="V55" t="n">
+        <v>0.9339964139920454</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>0.03023050725460052</v>
       </c>
       <c r="B56" t="n">
         <v>-0.7950617522001266</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>2.076413323261349</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>6</v>
@@ -4234,8 +4234,8 @@
       <c r="G56" t="n">
         <v>0.9130434782608695</v>
       </c>
-      <c r="H56" s="1" t="n">
-        <v>5</v>
+      <c r="H56" t="n">
+        <v>8</v>
       </c>
       <c r="I56" s="1" t="n">
         <v>0.04000000000000001</v>
@@ -4261,8 +4261,8 @@
       <c r="P56" t="n">
         <v>0.441599982420937</v>
       </c>
-      <c r="Q56" s="1" t="n">
-        <v>8</v>
+      <c r="Q56" t="n">
+        <v>5</v>
       </c>
       <c r="R56" s="1" t="n">
         <v>1.778747513382372</v>
@@ -4276,8 +4276,8 @@
       <c r="U56" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V56" s="1" t="n">
-        <v>0.8859659347284118</v>
+      <c r="V56" t="n">
+        <v>0.907844931347941</v>
       </c>
     </row>
     <row r="57">
@@ -4288,7 +4288,7 @@
         <v>-0.4745312929153442</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>3.379076572867401</v>
+        <v>4</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>8</v>
@@ -4302,8 +4302,8 @@
       <c r="G57" t="n">
         <v>0.8695652173913043</v>
       </c>
-      <c r="H57" s="1" t="n">
-        <v>4</v>
+      <c r="H57" t="n">
+        <v>15</v>
       </c>
       <c r="I57" t="n">
         <v>0.1111111111111111</v>
@@ -4329,8 +4329,8 @@
       <c r="P57" t="n">
         <v>0.7750123137142799</v>
       </c>
-      <c r="Q57" s="1" t="n">
-        <v>15</v>
+      <c r="Q57" t="n">
+        <v>4</v>
       </c>
       <c r="R57" t="n">
         <v>1.790511713580148</v>
@@ -4344,19 +4344,19 @@
       <c r="U57" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V57" s="1" t="n">
-        <v>0.6330814726579055</v>
+      <c r="V57" t="n">
+        <v>0.6487154681166755</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>0.4018734991550446</v>
       </c>
       <c r="B58" t="n">
         <v>-0.621077224612236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>3.072295837936365</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>9</v>
@@ -4371,7 +4371,7 @@
         <v>0.7826086956521739</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I58" t="n">
         <v>0.1111111111111111</v>
@@ -4397,8 +4397,8 @@
       <c r="P58" t="n">
         <v>0.7963553909586716</v>
       </c>
-      <c r="Q58" s="1" t="n">
-        <v>16</v>
+      <c r="Q58" t="n">
+        <v>6</v>
       </c>
       <c r="R58" s="1" t="n">
         <v>1.73023804570537</v>
@@ -4412,8 +4412,8 @@
       <c r="U58" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V58" s="1" t="n">
-        <v>0.6452642671077279</v>
+      <c r="V58" t="n">
+        <v>0.6611991176085891</v>
       </c>
     </row>
     <row r="59">
@@ -4424,7 +4424,7 @@
         <v>0.9700087308883667</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>3.854777680991358</v>
+        <v>4</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>16</v>
@@ -4438,8 +4438,8 @@
       <c r="G59" t="n">
         <v>1</v>
       </c>
-      <c r="H59" s="1" t="n">
-        <v>5</v>
+      <c r="H59" t="n">
+        <v>15</v>
       </c>
       <c r="I59" s="1" t="n">
         <v>0.1111111111111111</v>
@@ -4465,8 +4465,8 @@
       <c r="P59" t="n">
         <v>0.7561383689918901</v>
       </c>
-      <c r="Q59" s="1" t="n">
-        <v>15</v>
+      <c r="Q59" t="n">
+        <v>5</v>
       </c>
       <c r="R59" t="n">
         <v>1.790511713580148</v>
@@ -4480,8 +4480,8 @@
       <c r="U59" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V59" s="1" t="n">
-        <v>0.5889727405753026</v>
+      <c r="V59" t="n">
+        <v>0.6035174675167421</v>
       </c>
     </row>
     <row r="60">
@@ -4492,7 +4492,7 @@
         <v>-0.1767330850873675</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>2.998803481508547</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>6</v>
@@ -4507,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I60" t="n">
         <v>0.1041666666666667</v>
@@ -4533,8 +4533,8 @@
       <c r="P60" t="n">
         <v>0.5371926654867829</v>
       </c>
-      <c r="Q60" s="1" t="n">
-        <v>6</v>
+      <c r="Q60" t="n">
+        <v>4</v>
       </c>
       <c r="R60" t="n">
         <v>1.714203171343286</v>
@@ -4548,8 +4548,8 @@
       <c r="U60" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V60" s="1" t="n">
-        <v>0.7519781333833444</v>
+      <c r="V60" t="n">
+        <v>0.7705482909857329</v>
       </c>
     </row>
     <row r="61">
@@ -4560,7 +4560,7 @@
         <v>-0.4562288522720337</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>1.837308766502761</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>6</v>
@@ -4574,8 +4574,8 @@
       <c r="G61" t="n">
         <v>0.9565217391304348</v>
       </c>
-      <c r="H61" s="1" t="n">
-        <v>5</v>
+      <c r="H61" t="n">
+        <v>4</v>
       </c>
       <c r="I61" t="n">
         <v>0.03401360544217687</v>
@@ -4601,8 +4601,8 @@
       <c r="P61" t="n">
         <v>0.2440544779975879</v>
       </c>
-      <c r="Q61" s="1" t="n">
-        <v>4</v>
+      <c r="Q61" t="n">
+        <v>5</v>
       </c>
       <c r="R61" t="n">
         <v>1.885299500946812</v>
@@ -4616,8 +4616,8 @@
       <c r="U61" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V61" s="1" t="n">
-        <v>0.8507203206479008</v>
+      <c r="V61" t="n">
+        <v>0.8717289241280402</v>
       </c>
     </row>
     <row r="62">
@@ -4628,7 +4628,7 @@
         <v>-1.379035830497742</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>3.095129001670651</v>
+        <v>4</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>10</v>
@@ -4642,8 +4642,8 @@
       <c r="G62" t="n">
         <v>0.8695652173913043</v>
       </c>
-      <c r="H62" s="1" t="n">
-        <v>6</v>
+      <c r="H62" t="n">
+        <v>13</v>
       </c>
       <c r="I62" t="n">
         <v>0.1111111111111111</v>
@@ -4669,8 +4669,8 @@
       <c r="P62" t="n">
         <v>0.8388125180040888</v>
       </c>
-      <c r="Q62" s="1" t="n">
-        <v>13</v>
+      <c r="Q62" t="n">
+        <v>6</v>
       </c>
       <c r="R62" t="n">
         <v>1.483611654966423</v>
@@ -4684,8 +4684,8 @@
       <c r="U62" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V62" s="1" t="n">
-        <v>0.6376839124264988</v>
+      <c r="V62" t="n">
+        <v>0.6534315654878825</v>
       </c>
     </row>
     <row r="63">
@@ -4696,7 +4696,7 @@
         <v>1.000827193260193</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>3.68480070840787</v>
+        <v>4</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>8</v>
@@ -4710,8 +4710,8 @@
       <c r="G63" t="n">
         <v>0.8260869565217391</v>
       </c>
-      <c r="H63" s="1" t="n">
-        <v>5</v>
+      <c r="H63" t="n">
+        <v>15</v>
       </c>
       <c r="I63" s="1" t="n">
         <v>0.1111111111111111</v>
@@ -4737,8 +4737,8 @@
       <c r="P63" t="n">
         <v>0.7348060490043172</v>
       </c>
-      <c r="Q63" s="1" t="n">
-        <v>15</v>
+      <c r="Q63" t="n">
+        <v>5</v>
       </c>
       <c r="R63" t="n">
         <v>1.73023804570537</v>
@@ -4752,8 +4752,8 @@
       <c r="U63" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V63" s="1" t="n">
-        <v>0.6135343276114881</v>
+      <c r="V63" t="n">
+        <v>0.6286856048261045</v>
       </c>
     </row>
     <row r="64">
@@ -4764,7 +4764,7 @@
         <v>1.074292063713074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>2.907311151616438</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>7</v>
@@ -4778,8 +4778,8 @@
       <c r="G64" t="n">
         <v>0.7826086956521739</v>
       </c>
-      <c r="H64" s="1" t="n">
-        <v>6</v>
+      <c r="H64" t="n">
+        <v>15</v>
       </c>
       <c r="I64" t="n">
         <v>0.0625</v>
@@ -4805,8 +4805,8 @@
       <c r="P64" t="n">
         <v>0.6688431671727501</v>
       </c>
-      <c r="Q64" s="1" t="n">
-        <v>15</v>
+      <c r="Q64" t="n">
+        <v>6</v>
       </c>
       <c r="R64" t="n">
         <v>1.73023804570537</v>
@@ -4820,8 +4820,8 @@
       <c r="U64" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V64" s="1" t="n">
-        <v>0.7125797158656658</v>
+      <c r="V64" t="n">
+        <v>0.7301769265296958</v>
       </c>
     </row>
     <row r="65">
@@ -4832,7 +4832,7 @@
         <v>0.8525265455245972</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>3.285859775952992</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>8</v>
@@ -4846,8 +4846,8 @@
       <c r="G65" t="n">
         <v>1</v>
       </c>
-      <c r="H65" s="1" t="n">
-        <v>5</v>
+      <c r="H65" t="n">
+        <v>12</v>
       </c>
       <c r="I65" t="n">
         <v>0.1111111111111111</v>
@@ -4873,8 +4873,8 @@
       <c r="P65" t="n">
         <v>0.728706648937482</v>
       </c>
-      <c r="Q65" s="1" t="n">
-        <v>12</v>
+      <c r="Q65" t="n">
+        <v>5</v>
       </c>
       <c r="R65" s="1" t="n">
         <v>1.665693703666284</v>
@@ -4888,8 +4888,8 @@
       <c r="U65" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V65" s="1" t="n">
-        <v>0.6997252821898771</v>
+      <c r="V65" t="n">
+        <v>0.7170050516296856</v>
       </c>
     </row>
     <row r="66">
@@ -4900,7 +4900,7 @@
         <v>0.7601801753044128</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>3.238479202448134</v>
+        <v>4</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>8</v>
@@ -4914,8 +4914,8 @@
       <c r="G66" t="n">
         <v>0.9565217391304348</v>
       </c>
-      <c r="H66" s="1" t="n">
-        <v>7</v>
+      <c r="H66" t="n">
+        <v>16</v>
       </c>
       <c r="I66" s="1" t="n">
         <v>0.1111111111111111</v>
@@ -4941,8 +4941,8 @@
       <c r="P66" t="n">
         <v>0.7478701909544907</v>
       </c>
-      <c r="Q66" s="1" t="n">
-        <v>16</v>
+      <c r="Q66" t="n">
+        <v>7</v>
       </c>
       <c r="R66" t="n">
         <v>1.73023804570537</v>
@@ -4956,8 +4956,8 @@
       <c r="U66" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V66" s="1" t="n">
-        <v>0.6442363093792414</v>
+      <c r="V66" t="n">
+        <v>0.6601457743852601</v>
       </c>
     </row>
     <row r="67">
@@ -4968,7 +4968,7 @@
         <v>-1.36204195022583</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>3.312365901246937</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>9</v>
@@ -4983,7 +4983,7 @@
         <v>0.9130434782608695</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I67" t="n">
         <v>0.1111111111111111</v>
@@ -5009,8 +5009,8 @@
       <c r="P67" t="n">
         <v>0.812657865345757</v>
       </c>
-      <c r="Q67" s="1" t="n">
-        <v>15</v>
+      <c r="Q67" t="n">
+        <v>6</v>
       </c>
       <c r="R67" t="n">
         <v>1.665693703666284</v>
@@ -5024,8 +5024,8 @@
       <c r="U67" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V67" s="1" t="n">
-        <v>0.6439677083574314</v>
+      <c r="V67" t="n">
+        <v>0.6598705402406428</v>
       </c>
     </row>
     <row r="68">
@@ -5036,7 +5036,7 @@
         <v>-0.7230163812637329</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>1.83486141245687</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>6</v>
@@ -5092,8 +5092,8 @@
       <c r="U68" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V68" s="1" t="n">
-        <v>0.9414478639673471</v>
+      <c r="V68" t="n">
+        <v>0.9646969910791235</v>
       </c>
     </row>
   </sheetData>

--- a/tsml_eval/_wip/catch22/aeon_catch22_with_numba.xlsx
+++ b/tsml_eval/_wip/catch22/aeon_catch22_with_numba.xlsx
@@ -698,8 +698,8 @@
       <c r="G4" t="n">
         <v>0.9130434782608695</v>
       </c>
-      <c r="H4" s="1" t="n">
-        <v>4</v>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>0.03401360544217687</v>
@@ -1310,8 +1310,8 @@
       <c r="G13" t="n">
         <v>0.9565217391304348</v>
       </c>
-      <c r="H13" s="1" t="n">
-        <v>17</v>
+      <c r="H13" t="n">
+        <v>16</v>
       </c>
       <c r="I13" t="n">
         <v>0.1111111111111111</v>
@@ -1446,8 +1446,8 @@
       <c r="G15" t="n">
         <v>0.8260869565217391</v>
       </c>
-      <c r="H15" s="1" t="n">
-        <v>16</v>
+      <c r="H15" t="n">
+        <v>15</v>
       </c>
       <c r="I15" t="n">
         <v>0.1111111111111111</v>
@@ -1514,8 +1514,8 @@
       <c r="G16" t="n">
         <v>0.8695652173913043</v>
       </c>
-      <c r="H16" s="1" t="n">
-        <v>16</v>
+      <c r="H16" t="n">
+        <v>15</v>
       </c>
       <c r="I16" t="n">
         <v>0.1111111111111111</v>
@@ -1650,8 +1650,8 @@
       <c r="G18" t="n">
         <v>0.9565217391304348</v>
       </c>
-      <c r="H18" s="1" t="n">
-        <v>8</v>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
       <c r="I18" t="n">
         <v>0.1111111111111111</v>
@@ -1718,8 +1718,8 @@
       <c r="G19" t="n">
         <v>0.8260869565217391</v>
       </c>
-      <c r="H19" s="1" t="n">
-        <v>7</v>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
       <c r="I19" t="n">
         <v>0.1666666666666667</v>
@@ -1786,8 +1786,8 @@
       <c r="G20" t="n">
         <v>0.7826086956521739</v>
       </c>
-      <c r="H20" s="1" t="n">
-        <v>16</v>
+      <c r="H20" t="n">
+        <v>15</v>
       </c>
       <c r="I20" t="n">
         <v>0.1111111111111111</v>
@@ -1990,8 +1990,8 @@
       <c r="G23" t="n">
         <v>0.9130434782608695</v>
       </c>
-      <c r="H23" s="1" t="n">
-        <v>16</v>
+      <c r="H23" t="n">
+        <v>15</v>
       </c>
       <c r="I23" t="n">
         <v>0.1111111111111111</v>
@@ -2058,8 +2058,8 @@
       <c r="G24" t="n">
         <v>0.8695652173913043</v>
       </c>
-      <c r="H24" s="1" t="n">
-        <v>17</v>
+      <c r="H24" t="n">
+        <v>16</v>
       </c>
       <c r="I24" t="n">
         <v>0.1111111111111111</v>
@@ -2126,8 +2126,8 @@
       <c r="G25" t="n">
         <v>0.9130434782608695</v>
       </c>
-      <c r="H25" s="1" t="n">
-        <v>16</v>
+      <c r="H25" t="n">
+        <v>15</v>
       </c>
       <c r="I25" t="n">
         <v>0.1111111111111111</v>
@@ -2466,8 +2466,8 @@
       <c r="G30" t="n">
         <v>0.9130434782608695</v>
       </c>
-      <c r="H30" s="1" t="n">
-        <v>16</v>
+      <c r="H30" t="n">
+        <v>15</v>
       </c>
       <c r="I30" t="n">
         <v>0.1111111111111111</v>
@@ -2534,8 +2534,8 @@
       <c r="G31" t="n">
         <v>0.8260869565217391</v>
       </c>
-      <c r="H31" s="1" t="n">
-        <v>16</v>
+      <c r="H31" t="n">
+        <v>15</v>
       </c>
       <c r="I31" t="n">
         <v>0.1111111111111111</v>
@@ -2806,8 +2806,8 @@
       <c r="G35" t="n">
         <v>0.9565217391304348</v>
       </c>
-      <c r="H35" s="1" t="n">
-        <v>7</v>
+      <c r="H35" t="n">
+        <v>6</v>
       </c>
       <c r="I35" t="n">
         <v>0.1111111111111111</v>
@@ -2942,8 +2942,8 @@
       <c r="G37" t="n">
         <v>0.7826086956521739</v>
       </c>
-      <c r="H37" s="1" t="n">
-        <v>16</v>
+      <c r="H37" t="n">
+        <v>15</v>
       </c>
       <c r="I37" t="n">
         <v>0.1111111111111111</v>
@@ -3146,8 +3146,8 @@
       <c r="G40" t="n">
         <v>0.9130434782608695</v>
       </c>
-      <c r="H40" s="1" t="n">
-        <v>16</v>
+      <c r="H40" t="n">
+        <v>15</v>
       </c>
       <c r="I40" s="1" t="n">
         <v>0.1111111111111111</v>
@@ -3418,8 +3418,8 @@
       <c r="G44" t="n">
         <v>0.9565217391304348</v>
       </c>
-      <c r="H44" s="1" t="n">
-        <v>16</v>
+      <c r="H44" t="n">
+        <v>15</v>
       </c>
       <c r="I44" t="n">
         <v>0.1111111111111111</v>
@@ -3758,8 +3758,8 @@
       <c r="G49" t="n">
         <v>0.9130434782608695</v>
       </c>
-      <c r="H49" s="1" t="n">
-        <v>16</v>
+      <c r="H49" t="n">
+        <v>15</v>
       </c>
       <c r="I49" t="n">
         <v>0.1111111111111111</v>
@@ -3962,8 +3962,8 @@
       <c r="G52" t="n">
         <v>0.9130434782608695</v>
       </c>
-      <c r="H52" s="1" t="n">
-        <v>16</v>
+      <c r="H52" t="n">
+        <v>15</v>
       </c>
       <c r="I52" s="1" t="n">
         <v>0.1111111111111111</v>
@@ -4098,8 +4098,8 @@
       <c r="G54" t="n">
         <v>1</v>
       </c>
-      <c r="H54" s="1" t="n">
-        <v>16</v>
+      <c r="H54" t="n">
+        <v>15</v>
       </c>
       <c r="I54" t="n">
         <v>0.1111111111111111</v>
@@ -4370,8 +4370,8 @@
       <c r="G58" t="n">
         <v>0.7826086956521739</v>
       </c>
-      <c r="H58" s="1" t="n">
-        <v>16</v>
+      <c r="H58" t="n">
+        <v>15</v>
       </c>
       <c r="I58" t="n">
         <v>0.1111111111111111</v>
@@ -4506,8 +4506,8 @@
       <c r="G60" t="n">
         <v>1</v>
       </c>
-      <c r="H60" s="1" t="n">
-        <v>6</v>
+      <c r="H60" t="n">
+        <v>5</v>
       </c>
       <c r="I60" t="n">
         <v>0.1041666666666667</v>
@@ -4982,8 +4982,8 @@
       <c r="G67" t="n">
         <v>0.9130434782608695</v>
       </c>
-      <c r="H67" s="1" t="n">
-        <v>15</v>
+      <c r="H67" t="n">
+        <v>14</v>
       </c>
       <c r="I67" t="n">
         <v>0.1111111111111111</v>

--- a/tsml_eval/_wip/catch22/aeon_catch22_with_numba.xlsx
+++ b/tsml_eval/_wip/catch22/aeon_catch22_with_numba.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,8 +547,8 @@
       <c r="B2" t="n">
         <v>-0.2172266840934753</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
+      <c r="C2" t="n">
+        <v>2.586673782144931</v>
       </c>
       <c r="D2" t="n">
         <v>6</v>
@@ -606,6 +606,4494 @@
       </c>
       <c r="V2" t="n">
         <v>0.8574191573061893</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.9181615710258484</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.2147622108459473</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.366405849427805</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5482697259169239</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.07135294482991371</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.3882169059470468</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.7027748523460556</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.6826107272137758</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-0.2731795012950897</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.08585639297962189</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.892028062899493</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4641090699437339</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.216592746902581</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.03401360544217687</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.08910362001443274</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.8749999999999999</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2499999999999999</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.3105674139582154</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.5890486225480862</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.8864360551857</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.04841111103693644</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.4500797390937805</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.563430865515642</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6093185793190494</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1249221203757299</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H5" t="n">
+        <v>13</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.3324360419853664</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.804047159219282</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.605420035791506</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.6643191885375342</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.4263790249824524</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5725660920143127</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.362548187845878</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5590221813578007</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.05454866900630459</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.3184052155890569</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.6754849824949913</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.6741940111567349</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.7939940094947815</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.3925162255764008</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.382430964585834</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3128434764569266</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3447650001160035</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0.06666666666666668</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>0.1665001124995195</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.4583333333333334</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.4069984278359965</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.778747513382372</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.5890486225480862</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.8184240915298243</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.0361613929271698</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.142518475651741</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.554511821968367</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6396131603023893</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1966051810967132</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0.02666666666666668</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.152951771595981</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.04166666666666672</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.5833333333333334</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.5978962573702267</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.847775752366145</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.3926990816987241</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.8883513367359682</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.9248766899108887</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.3359417021274567</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.60814758879192</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5731491830329671</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.05384822332119521</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.464675680010055</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.7373254361100833</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.6289793636448475</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.8390222787857056</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7052313685417175</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.62914081736388</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6079137608318881</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.07593703284829169</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="H10" t="n">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3778836857246204</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.7404830606197635</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.6154088878652204</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.9951859712600708</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.1334540843963623</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.612271843445458</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7718463280452653</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1078952415495425</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2851842039569111</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.8302763920018271</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.483611654966423</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.6682353638799723</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.5673130750656128</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.3635061681270599</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.101515551079539</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7483716894163832</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3084149990341674</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>0.2544603298412751</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.1249999999999999</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.7186019519514407</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.911059049329703</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.3926990816987241</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.7552580635694194</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.9194077253341675</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-1.514761924743652</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.207435887865077</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4478498363562824</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1265194915950659</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H13" t="n">
+        <v>16</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2747010975633381</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.6788710458531927</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.790511713580147</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.3926990816987241</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.7156207708092244</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.4215589165687561</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5681732892990112</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.360703915185088</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5590221813578007</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.05309767033822804</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H14" t="n">
+        <v>15</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.4673664171240879</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.6784647622519333</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>6</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.6814319447688442</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.9014067053794861</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6141835153102875</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.567474840785243</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5102222561629912</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.06247643581620211</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="H15" t="n">
+        <v>15</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.2469973958198823</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.7637942340039413</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.665693703666284</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.65708644925339</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.482454776763916</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.4390748143196106</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.327650915676295</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5700892058028975</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.06530752808543712</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H16" t="n">
+        <v>15</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4798044244031647</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.04166666666666661</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.6834612805791206</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.730238045705369</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.6849799384292986</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-0.6170377135276794</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.4183956980705261</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.46380717380268</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.4202784391663371</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.002647393052065681</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0.06666666666666668</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.2464374633141916</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.8749999999999999</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.3750000000000001</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.4072774958400371</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.819976677806285</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.5890486225480862</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.7670002264041113</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-0.0836450606584549</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7695344835519791</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.302967493968384</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.485337597948598</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.05765345289547429</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1917169586584434</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.6666666666666665</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.5833333333333334</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.6190143854148003</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.778747513382372</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.7218312500339272</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-0.52236008644104</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.3625948131084442</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.29584809957333</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6858628080656606</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.06362976908855447</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3082695217564364</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.6666666666666665</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-0.5416666666666667</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.6217645988052942</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.714203171343286</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.7055351163517595</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.4413056075572968</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.4143381118774414</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.607711490568475</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6555682270823208</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1034394112097916</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4481460856785227</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.1458333333333333</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.8088382236805132</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.483611654966423</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.6458425355632602</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.4340425729751587</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5762799978256226</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.536727884349005</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5339198095168153</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.04228622257037058</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H21" t="n">
+        <v>15</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.4604518410654317</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.7202343528225197</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>6</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.6492256208314514</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.8834339380264282</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.023428201675415</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.390699711167795</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5855345727842972</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.064052958920849</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="H22" t="n">
+        <v>15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.4195776836324451</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.7093218955161197</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.790511713580147</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.667185686402688</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.4954316020011902</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6457960605621338</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.483901008448568</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5744675483392004</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0933396410105963</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H23" t="n">
+        <v>15</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.2704324930731606</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.04166666666666661</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.7978298655752953</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>6</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.483611654966423</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.3926990816987241</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.6662215934181749</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.326772928237915</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4680100083351135</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.321347433155015</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.4478498363562824</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1238441504293555</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H24" t="n">
+        <v>16</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3656320678195291</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.08333333333333327</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.6923145921415631</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.790511713580147</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.6798841218158759</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.5158521570265293</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.1740318139394124</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.298212236796929</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5990654214800042</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.04021450803199572</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H25" t="n">
+        <v>15</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3525351912503066</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.656506326906396</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.605420035791506</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.6999238317103339</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.5049881339073181</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.3508234620094299</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.201355389290226</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5380978201604568</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.08974974039051774</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H26" t="n">
+        <v>16</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2174505497779009</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.04166666666666661</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.6636836025590529</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.7066769666510576</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.5259659290313721</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.3646472990512848</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.33780441506125</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5277134018757478</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3542779772791617</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1016302683218915</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.04166666666666661</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.4337770710588943</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.83902118125715</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.5890486225480862</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.9299716493102558</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.481952577829361</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3304328322410583</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.233981299862188</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5463051992681454</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.07312103889030727</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="H28" t="n">
+        <v>15</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3787010455863647</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.04166666666666661</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.6743069499229292</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.7012995687514046</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.058463215827942</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.2090744972229</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.568041929897631</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.6562956405074442</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.08772222007441691</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H29" t="n">
+        <v>12</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3299957005071157</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.1249999999999999</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-0.5833333333333334</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.8349861566943183</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.714203171343286</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.3926990816987241</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.6754997567266193</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.4745493531227112</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.3232825696468353</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.500883110436085</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.6382947949961563</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.06314496155471067</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H30" t="n">
+        <v>15</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.3590105635313629</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.08333333333333327</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.7789099676396366</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.605420035791506</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.651422242259642</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.532102108001709</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.3791253566741943</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.338404170413899</v>
+      </c>
+      <c r="D31" t="n">
+        <v>8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5225211927333931</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.07362987814057619</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="H31" t="n">
+        <v>15</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.3250411085106832</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.6814860262368827</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.665693703666284</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.6858122216291865</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.8871374130249023</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.027211666107178</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.472896335947613</v>
+      </c>
+      <c r="D32" t="n">
+        <v>8</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5855345727842972</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.07158404357812796</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H32" t="n">
+        <v>15</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.2697406285597465</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.7112305104666558</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.6561863467065937</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-0.7519186735153198</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.7519186735153198</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.343855110735963</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.4635993701452024</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.3308712537067423</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>0.06666666666666668</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>0.1464848369504443</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-0.4583333333333334</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.39634075014939</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>6</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.885299500946812</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.5890486225480862</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.8376587367987973</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1.026548266410828</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-1.377173662185669</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.615486725843786</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.7718463280452653</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.08419052673666019</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="H34" t="n">
+        <v>13</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J34" t="n">
+        <v>6</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3202526031733805</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.8486668508358579</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>6</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.483611654966423</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.3926990816987241</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.6516400889749291</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-0.5593281984329224</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.8767848014831543</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.129042806420076</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.5907267819266518</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.04163235443387907</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.3782650100817441</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.6666666666666665</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-0.5833333333333334</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.6054045887584985</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.714203171343286</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.7400365745078062</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-0.06989885866641998</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1222102642059326</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.537765719726716</v>
+      </c>
+      <c r="D36" t="n">
+        <v>6</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6676442489277807</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1533686765949675</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.215736218606935</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.04166666666666672</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-0.5833333333333334</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.5705471799181075</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.994082636498592</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.3926990816987241</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.8960191792551805</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.9476113319396973</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.35373067855835</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3.665129854005043</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7242783149757608</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.09359127567312539</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H37" t="n">
+        <v>15</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J37" t="n">
+        <v>6</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.37190564287959</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.8204341074181251</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>6</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.605420035791506</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.6446974682455934</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.829464316368103</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.06383097171783447</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3.798567680915832</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6723319593699535</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.03537518638771152</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H38" t="n">
+        <v>15</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.5095898465663092</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.7641136498668536</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.790511713580147</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.6012963197891809</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.2081013470888138</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.005945734679698944</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2.304699202822833</v>
+      </c>
+      <c r="D39" t="n">
+        <v>6</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.4068788509162941</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1701933093209314</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>0.02666666666666668</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.1515196488394227</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.04166666666666672</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-0.5833333333333334</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.5202304725836779</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.3926990816987241</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.9560072040126173</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.4456265568733215</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5940335988998413</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.454050303961275</v>
+      </c>
+      <c r="D40" t="n">
+        <v>8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.6124650097300474</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.09192011413889337</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H40" t="n">
+        <v>15</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.3777711578296782</v>
+      </c>
+      <c r="L40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.2499999999999999</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.6995154028463711</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>6</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.665693703666284</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.6640850982452019</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.9586377143859863</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.2458418309688568</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.875854816256313</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.6112831059678279</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.05740045253921695</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H41" t="n">
+        <v>15</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.3820079831657348</v>
+      </c>
+      <c r="L41" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.8315490457628903</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.605420035791506</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.6046829025695121</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-0.3807920217514038</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.5533497830231985</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.696669311724185</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.6322887192477501</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.2441883805353921</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.1041666666666667</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.1710310314731136</v>
+      </c>
+      <c r="L42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-0.5416666666666667</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.4987382332235186</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.714203171343286</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.847826137624116</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.9360331296920776</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.2013241052627563</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3.17485058778983</v>
+      </c>
+      <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.5744675483392002</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.05700541041699559</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="H43" t="n">
+        <v>15</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.3522948319246226</v>
+      </c>
+      <c r="L43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.2499999999999999</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6574177797632969</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.7073200176862909</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1.033808588981628</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-1.386887311935425</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3.784278734060136</v>
+      </c>
+      <c r="D44" t="n">
+        <v>9</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.7553919636635024</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.05453675167018169</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H44" t="n">
+        <v>15</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J44" t="n">
+        <v>6</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.4154358266913072</v>
+      </c>
+      <c r="L44" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.1249999999999999</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.8321812764474428</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.483611654966423</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.6199724495025251</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>-0.05005425214767456</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.1232104301452637</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.516220442018226</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.439288282077988</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.2025087046991278</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.1107062314902388</v>
+      </c>
+      <c r="L45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.04166666666666661</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-0.5833333333333334</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.543849356713797</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.834750507092842</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.3926990816987241</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.8716415822789345</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.4830367565155029</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.4117159843444824</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.328159963226137</v>
+      </c>
+      <c r="D46" t="n">
+        <v>8</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.5586041358385472</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0300748809502393</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="H46" t="n">
+        <v>15</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.545893415962606</v>
+      </c>
+      <c r="L46" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.662297742741271</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.730238045705369</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.6827214533705925</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>-0.2116924822330475</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-1.343757629394531</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.515867256634603</v>
+      </c>
+      <c r="D47" t="n">
+        <v>9</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.7943984224547125</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.08121861922139682</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H47" t="n">
+        <v>13</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J47" t="n">
+        <v>6</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.3357415304668626</v>
+      </c>
+      <c r="L47" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.04166666666666661</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.8179327885082108</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.483611654966423</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.3926990816987241</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.6704933583602372</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>-0.3638662695884705</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.5499176979064941</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.308693834093694</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.3386732617230353</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.3373894943610399</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>0.06666666666666668</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1" t="n">
+        <v>0.108581463814451</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.3750000000000001</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.3953789138509297</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.836011552168369</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.5890486225480862</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.8476026266696666</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1.00349235534668</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.3411079943180084</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3.60910994788932</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.624677493119521</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.09910837918350009</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H49" t="n">
+        <v>15</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3762245716819116</v>
+      </c>
+      <c r="L49" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.1249999999999999</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.8115764439333524</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>6</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.483611654966423</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.6430829873760525</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>-0.8172454237937927</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.2267749011516571</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2.511637445451075</v>
+      </c>
+      <c r="D50" t="n">
+        <v>7</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.3893877052035375</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.1164559485077582</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.1041666666666667</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.2152294099707906</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.7291666666666665</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.4418276414378308</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.751726919923953</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.5890486225480862</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.7987267666407276</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>-0.5234944224357605</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.3633207678794861</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2.333789217485165</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.4717202960719629</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.3019675635040283</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.227749606934105</v>
+      </c>
+      <c r="L51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.08333333333333327</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.4280771712004225</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.548155997005509</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.5890486225480862</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.9354075367230528</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.4997361302375793</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.6527048349380493</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3.34841032208782</v>
+      </c>
+      <c r="D52" t="n">
+        <v>8</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.6011112002113609</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0812217810975869</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H52" t="n">
+        <v>15</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.3733513064440256</v>
+      </c>
+      <c r="L52" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.6796055464304638</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.548155997005509</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.6836890455803701</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.08208309859037399</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.08114497363567352</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.702405952858771</v>
+      </c>
+      <c r="D53" t="n">
+        <v>7</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.4306628574510462</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.09252280868735699</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2691040294853203</v>
+      </c>
+      <c r="L53" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.04166666666666661</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-0.5833333333333334</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.5746041788589592</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>6</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.665693703666284</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.3926990816987241</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.8369230021690024</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.46556556224823</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.6170146465301514</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3.496558429027839</v>
+      </c>
+      <c r="D54" t="n">
+        <v>8</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.5752814149452522</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.08826944680024018</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>15</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.1984113086107902</v>
+      </c>
+      <c r="L54" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.08333333333333327</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.7815817352682647</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>6</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.639934155283393</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.3926990816987241</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.6445781827085135</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.01569919288158417</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.1821102797985077</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.368973864826367</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.6985349828905802</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.1655269330780491</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>0.02666666666666668</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.1873703428956668</v>
+      </c>
+      <c r="L55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.04166666666666672</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-0.5416666666666667</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.5265412832179288</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.3926990816987241</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.9339964139920454</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.03023050725460052</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.7950617522001266</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.422027532951638</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.6048537836018185</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.1179355638990669</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2376496642364702</v>
+      </c>
+      <c r="L56" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.441599982420937</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.816271261963039</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.5890486225480862</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.907844931347941</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.6721368432044983</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.4745312929153442</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.60435448385191</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.5506835418044481</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.05035538450964174</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H57" t="n">
+        <v>15</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.3598252058136453</v>
+      </c>
+      <c r="L57" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.1041666666666666</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.7750123137142799</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.790511713580147</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.6487154681166755</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.4018734991550446</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.621077224612236</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3.490086255294618</v>
+      </c>
+      <c r="D58" t="n">
+        <v>9</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.5140960999991127</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.1092565779015803</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H58" t="n">
+        <v>15</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.2708237797136228</v>
+      </c>
+      <c r="L58" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.08333333333333327</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.7963553909586716</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>6</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.665693703666284</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.3926990816987241</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.6611991176085891</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.8345175981521606</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9700087308883667</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3.722507137149014</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.6723319593699535</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.03316686914229756</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>15</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4651742170898425</v>
+      </c>
+      <c r="L59" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.2916666666666666</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.7561383689918901</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.790511713580147</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.6035174675167421</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>-0.4401995986700058</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.1767330850873675</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.90986616407829</v>
+      </c>
+      <c r="D60" t="n">
+        <v>6</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.4016866417739395</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.1429109327937907</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.1041666666666667</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.1869834630012298</v>
+      </c>
+      <c r="L60" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.7083333333333333</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-0.5416666666666667</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.5371926654867829</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.714203171343286</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.7705482909857329</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>-0.2782995998859406</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.4562288522720337</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.773841537990254</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.3624572682577875</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.580405725834135</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.03401360544217687</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.09378303137176291</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.8749999999999999</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-0.1666666666666667</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.2440544779975879</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.885299500946812</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.5890486225480862</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.8717289241280402</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1.045303225517273</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-1.379035830497742</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3.622396088656317</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.7052684720641098</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.08747346436896355</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H62" t="n">
+        <v>13</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J62" t="n">
+        <v>6</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.2889035023330559</v>
+      </c>
+      <c r="L62" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.8388125180040888</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>6</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.483611654966423</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.6534315654878825</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.8659695386886597</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.000827193260193</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3.581393477539761</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.6406273588011022</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.04270055004200561</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="H63" t="n">
+        <v>15</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.4778548158942699</v>
+      </c>
+      <c r="L63" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.2499999999999999</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.6666666666666667</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.7348060490043172</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.6286856048261045</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.6499297171831131</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.074292063713074</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3.153595860988778</v>
+      </c>
+      <c r="D64" t="n">
+        <v>7</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.6097366248383028</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.1269606968089528</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="H64" t="n">
+        <v>15</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.2901606652337822</v>
+      </c>
+      <c r="L64" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-5.551115123125783e-17</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.6688431671727501</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>6</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.730238045705369</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.3926990816987241</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.7301769265296958</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1.005789756774902</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.8525265455245972</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3.412585659954937</v>
+      </c>
+      <c r="D65" t="n">
+        <v>8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.6560727257825022</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.2154968763255491</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>12</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J65" t="n">
+        <v>5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.1464749408829529</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.5833333333333334</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.728706648937482</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.857500426386953</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.3926990816987241</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.7170050516296856</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.8993799686431885</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.7601801753044128</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3.458975349733846</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.6521124287654525</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.07172661285493494</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H66" t="n">
+        <v>16</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.359878630853778</v>
+      </c>
+      <c r="L66" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.08333333333333327</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.7478701909544907</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>7</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1.73023804570537</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.6601457743852601</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>-1.217799186706543</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-1.36204195022583</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.654000422760018</v>
+      </c>
+      <c r="D67" t="n">
+        <v>9</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.6524217966713228</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.1062682682436044</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H67" t="n">
+        <v>14</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J67" t="n">
+        <v>5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.3710935959852772</v>
+      </c>
+      <c r="L67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.08333333333333327</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.812657865345757</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>6</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.665693703666284</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.1963495408493621</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.6598705402406428</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>-0.513158917427063</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-0.7230163812637329</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.748013550088016</v>
+      </c>
+      <c r="D68" t="n">
+        <v>6</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.3282023902573982</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.4581136801809949</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.01360544217687075</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.09001035183246436</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.8749999999999999</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-0.2916666666666667</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.211636893247127</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>6</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1.831740878004061</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.5890486225480862</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.9646969910791235</v>
       </c>
     </row>
   </sheetData>

--- a/tsml_eval/_wip/catch22/aeon_catch22_with_numba.xlsx
+++ b/tsml_eval/_wip/catch22/aeon_catch22_with_numba.xlsx
@@ -574,8 +574,8 @@
       <c r="K2" t="n">
         <v>0.2405983382553941</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>2</v>
+      <c r="L2" t="n">
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>0.75</v>
@@ -642,8 +642,8 @@
       <c r="K3" t="n">
         <v>0.3882169059470468</v>
       </c>
-      <c r="L3" s="1" t="n">
-        <v>6</v>
+      <c r="L3" t="n">
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>0.5</v>
@@ -778,8 +778,8 @@
       <c r="K5" t="n">
         <v>0.3324360419853664</v>
       </c>
-      <c r="L5" s="1" t="n">
-        <v>6</v>
+      <c r="L5" t="n">
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>0.6666666666666666</v>
@@ -846,8 +846,8 @@
       <c r="K6" t="n">
         <v>0.3184052155890569</v>
       </c>
-      <c r="L6" s="1" t="n">
-        <v>6</v>
+      <c r="L6" t="n">
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>0.5</v>
@@ -982,8 +982,8 @@
       <c r="K8" t="n">
         <v>0.152951771595981</v>
       </c>
-      <c r="L8" s="1" t="n">
-        <v>2</v>
+      <c r="L8" t="n">
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>0.75</v>
@@ -1050,8 +1050,8 @@
       <c r="K9" t="n">
         <v>0.464675680010055</v>
       </c>
-      <c r="L9" s="1" t="n">
-        <v>10</v>
+      <c r="L9" t="n">
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>0.6666666666666666</v>
@@ -1118,8 +1118,8 @@
       <c r="K10" t="n">
         <v>0.3778836857246204</v>
       </c>
-      <c r="L10" s="1" t="n">
-        <v>10</v>
+      <c r="L10" t="n">
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>0.6666666666666666</v>
@@ -1254,8 +1254,8 @@
       <c r="K12" s="1" t="n">
         <v>0.2544603298412751</v>
       </c>
-      <c r="L12" s="1" t="n">
-        <v>5</v>
+      <c r="L12" t="n">
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0.3333333333333333</v>
@@ -1322,8 +1322,8 @@
       <c r="K13" t="n">
         <v>0.2747010975633381</v>
       </c>
-      <c r="L13" s="1" t="n">
-        <v>6</v>
+      <c r="L13" t="n">
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>0.5</v>
@@ -1390,8 +1390,8 @@
       <c r="K14" t="n">
         <v>0.4673664171240879</v>
       </c>
-      <c r="L14" s="1" t="n">
-        <v>6</v>
+      <c r="L14" t="n">
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>0.5</v>
@@ -1458,8 +1458,8 @@
       <c r="K15" t="n">
         <v>0.2469973958198823</v>
       </c>
-      <c r="L15" s="1" t="n">
-        <v>10</v>
+      <c r="L15" t="n">
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>0.5</v>
@@ -1526,8 +1526,8 @@
       <c r="K16" t="n">
         <v>0.4798044244031647</v>
       </c>
-      <c r="L16" s="1" t="n">
-        <v>6</v>
+      <c r="L16" t="n">
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>0.5</v>
@@ -1662,8 +1662,8 @@
       <c r="K18" t="n">
         <v>0.1917169586584434</v>
       </c>
-      <c r="L18" s="1" t="n">
-        <v>6</v>
+      <c r="L18" t="n">
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>0.5</v>
@@ -1730,8 +1730,8 @@
       <c r="K19" t="n">
         <v>0.3082695217564364</v>
       </c>
-      <c r="L19" s="1" t="n">
-        <v>10</v>
+      <c r="L19" t="n">
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>0.3</v>
@@ -1798,8 +1798,8 @@
       <c r="K20" t="n">
         <v>0.4481460856785227</v>
       </c>
-      <c r="L20" s="1" t="n">
-        <v>6</v>
+      <c r="L20" t="n">
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>0.5</v>
@@ -1866,8 +1866,8 @@
       <c r="K21" t="n">
         <v>0.4604518410654317</v>
       </c>
-      <c r="L21" s="1" t="n">
-        <v>10</v>
+      <c r="L21" t="n">
+        <v>5</v>
       </c>
       <c r="M21" t="n">
         <v>0.5</v>
@@ -1934,8 +1934,8 @@
       <c r="K22" t="n">
         <v>0.4195776836324451</v>
       </c>
-      <c r="L22" s="1" t="n">
-        <v>10</v>
+      <c r="L22" t="n">
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>0.6666666666666666</v>
@@ -2002,8 +2002,8 @@
       <c r="K23" t="n">
         <v>0.2704324930731606</v>
       </c>
-      <c r="L23" s="1" t="n">
-        <v>5</v>
+      <c r="L23" t="n">
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>0.6666666666666666</v>
@@ -2070,8 +2070,8 @@
       <c r="K24" t="n">
         <v>0.3656320678195291</v>
       </c>
-      <c r="L24" s="1" t="n">
-        <v>5</v>
+      <c r="L24" t="n">
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>0.5</v>
@@ -2138,8 +2138,8 @@
       <c r="K25" t="n">
         <v>0.3525351912503066</v>
       </c>
-      <c r="L25" s="1" t="n">
-        <v>6</v>
+      <c r="L25" t="n">
+        <v>5</v>
       </c>
       <c r="M25" t="n">
         <v>0.5</v>
@@ -2206,8 +2206,8 @@
       <c r="K26" t="n">
         <v>0.2174505497779009</v>
       </c>
-      <c r="L26" s="1" t="n">
-        <v>5</v>
+      <c r="L26" t="n">
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>0.6</v>
@@ -2274,8 +2274,8 @@
       <c r="K27" t="n">
         <v>0.1016302683218915</v>
       </c>
-      <c r="L27" s="1" t="n">
-        <v>2</v>
+      <c r="L27" t="n">
+        <v>3</v>
       </c>
       <c r="M27" t="n">
         <v>0.5</v>
@@ -2342,8 +2342,8 @@
       <c r="K28" t="n">
         <v>0.3787010455863647</v>
       </c>
-      <c r="L28" s="1" t="n">
-        <v>5</v>
+      <c r="L28" t="n">
+        <v>4</v>
       </c>
       <c r="M28" t="n">
         <v>0.5</v>
@@ -2478,8 +2478,8 @@
       <c r="K30" t="n">
         <v>0.3590105635313629</v>
       </c>
-      <c r="L30" s="1" t="n">
-        <v>6</v>
+      <c r="L30" t="n">
+        <v>4</v>
       </c>
       <c r="M30" t="n">
         <v>0.5</v>
@@ -2546,8 +2546,8 @@
       <c r="K31" t="n">
         <v>0.3250411085106832</v>
       </c>
-      <c r="L31" s="1" t="n">
-        <v>6</v>
+      <c r="L31" t="n">
+        <v>5</v>
       </c>
       <c r="M31" t="n">
         <v>0.5</v>
@@ -2614,8 +2614,8 @@
       <c r="K32" t="n">
         <v>0.2697406285597465</v>
       </c>
-      <c r="L32" s="1" t="n">
-        <v>10</v>
+      <c r="L32" t="n">
+        <v>5</v>
       </c>
       <c r="M32" t="n">
         <v>0.6666666666666666</v>
@@ -2682,8 +2682,8 @@
       <c r="K33" s="1" t="n">
         <v>0.1464848369504443</v>
       </c>
-      <c r="L33" s="1" t="n">
-        <v>2</v>
+      <c r="L33" t="n">
+        <v>3</v>
       </c>
       <c r="M33" t="n">
         <v>0.75</v>
@@ -2750,8 +2750,8 @@
       <c r="K34" t="n">
         <v>0.3202526031733805</v>
       </c>
-      <c r="L34" s="1" t="n">
-        <v>5</v>
+      <c r="L34" t="n">
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>0.6666666666666666</v>
@@ -2818,8 +2818,8 @@
       <c r="K35" t="n">
         <v>0.3782650100817441</v>
       </c>
-      <c r="L35" s="1" t="n">
-        <v>6</v>
+      <c r="L35" t="n">
+        <v>4</v>
       </c>
       <c r="M35" t="n">
         <v>0.5</v>
@@ -2886,8 +2886,8 @@
       <c r="K36" t="n">
         <v>0.215736218606935</v>
       </c>
-      <c r="L36" s="1" t="n">
-        <v>2</v>
+      <c r="L36" t="n">
+        <v>3</v>
       </c>
       <c r="M36" t="n">
         <v>0.75</v>
@@ -2954,8 +2954,8 @@
       <c r="K37" t="n">
         <v>0.37190564287959</v>
       </c>
-      <c r="L37" s="1" t="n">
-        <v>6</v>
+      <c r="L37" t="n">
+        <v>5</v>
       </c>
       <c r="M37" t="n">
         <v>0.5</v>
@@ -3022,8 +3022,8 @@
       <c r="K38" t="n">
         <v>0.5095898465663092</v>
       </c>
-      <c r="L38" s="1" t="n">
-        <v>9</v>
+      <c r="L38" t="n">
+        <v>5</v>
       </c>
       <c r="M38" t="n">
         <v>0.6666666666666666</v>
@@ -3158,8 +3158,8 @@
       <c r="K40" t="n">
         <v>0.3777711578296782</v>
       </c>
-      <c r="L40" s="1" t="n">
-        <v>6</v>
+      <c r="L40" t="n">
+        <v>5</v>
       </c>
       <c r="M40" t="n">
         <v>0.5</v>
@@ -3226,8 +3226,8 @@
       <c r="K41" t="n">
         <v>0.3820079831657348</v>
       </c>
-      <c r="L41" s="1" t="n">
-        <v>9</v>
+      <c r="L41" t="n">
+        <v>5</v>
       </c>
       <c r="M41" t="n">
         <v>0.5</v>
@@ -3294,8 +3294,8 @@
       <c r="K42" t="n">
         <v>0.1710310314731136</v>
       </c>
-      <c r="L42" s="1" t="n">
-        <v>5</v>
+      <c r="L42" t="n">
+        <v>4</v>
       </c>
       <c r="M42" t="n">
         <v>0.4</v>
@@ -3362,8 +3362,8 @@
       <c r="K43" t="n">
         <v>0.3522948319246226</v>
       </c>
-      <c r="L43" s="1" t="n">
-        <v>5</v>
+      <c r="L43" t="n">
+        <v>4</v>
       </c>
       <c r="M43" t="n">
         <v>0.8</v>
@@ -3430,8 +3430,8 @@
       <c r="K44" t="n">
         <v>0.4154358266913072</v>
       </c>
-      <c r="L44" s="1" t="n">
-        <v>6</v>
+      <c r="L44" t="n">
+        <v>5</v>
       </c>
       <c r="M44" t="n">
         <v>0.6666666666666666</v>
@@ -3498,8 +3498,8 @@
       <c r="K45" t="n">
         <v>0.1107062314902388</v>
       </c>
-      <c r="L45" s="1" t="n">
-        <v>2</v>
+      <c r="L45" t="n">
+        <v>3</v>
       </c>
       <c r="M45" t="n">
         <v>0.5</v>
@@ -3566,8 +3566,8 @@
       <c r="K46" t="n">
         <v>0.545893415962606</v>
       </c>
-      <c r="L46" s="1" t="n">
-        <v>6</v>
+      <c r="L46" t="n">
+        <v>5</v>
       </c>
       <c r="M46" t="n">
         <v>0.6666666666666666</v>
@@ -3634,8 +3634,8 @@
       <c r="K47" t="n">
         <v>0.3357415304668626</v>
       </c>
-      <c r="L47" s="1" t="n">
-        <v>5</v>
+      <c r="L47" t="n">
+        <v>4</v>
       </c>
       <c r="M47" t="n">
         <v>0.5</v>
@@ -3770,8 +3770,8 @@
       <c r="K49" t="n">
         <v>0.3762245716819116</v>
       </c>
-      <c r="L49" s="1" t="n">
-        <v>6</v>
+      <c r="L49" t="n">
+        <v>4</v>
       </c>
       <c r="M49" t="n">
         <v>0.6666666666666666</v>
@@ -3906,8 +3906,8 @@
       <c r="K51" t="n">
         <v>0.227749606934105</v>
       </c>
-      <c r="L51" s="1" t="n">
-        <v>2</v>
+      <c r="L51" t="n">
+        <v>3</v>
       </c>
       <c r="M51" t="n">
         <v>0.75</v>
@@ -3974,8 +3974,8 @@
       <c r="K52" t="n">
         <v>0.3733513064440256</v>
       </c>
-      <c r="L52" s="1" t="n">
-        <v>6</v>
+      <c r="L52" t="n">
+        <v>5</v>
       </c>
       <c r="M52" t="n">
         <v>0.5</v>
@@ -4042,8 +4042,8 @@
       <c r="K53" t="n">
         <v>0.2691040294853203</v>
       </c>
-      <c r="L53" s="1" t="n">
-        <v>2</v>
+      <c r="L53" t="n">
+        <v>3</v>
       </c>
       <c r="M53" t="n">
         <v>0.4</v>
@@ -4110,8 +4110,8 @@
       <c r="K54" t="n">
         <v>0.1984113086107902</v>
       </c>
-      <c r="L54" s="1" t="n">
-        <v>5</v>
+      <c r="L54" t="n">
+        <v>4</v>
       </c>
       <c r="M54" t="n">
         <v>0.6666666666666666</v>
@@ -4178,8 +4178,8 @@
       <c r="K55" t="n">
         <v>0.1873703428956668</v>
       </c>
-      <c r="L55" s="1" t="n">
-        <v>2</v>
+      <c r="L55" t="n">
+        <v>3</v>
       </c>
       <c r="M55" t="n">
         <v>0.75</v>
@@ -4246,8 +4246,8 @@
       <c r="K56" t="n">
         <v>0.2376496642364702</v>
       </c>
-      <c r="L56" s="1" t="n">
-        <v>2</v>
+      <c r="L56" t="n">
+        <v>3</v>
       </c>
       <c r="M56" t="n">
         <v>0.75</v>
@@ -4314,8 +4314,8 @@
       <c r="K57" t="n">
         <v>0.3598252058136453</v>
       </c>
-      <c r="L57" s="1" t="n">
-        <v>10</v>
+      <c r="L57" t="n">
+        <v>5</v>
       </c>
       <c r="M57" t="n">
         <v>0.5</v>
@@ -4382,8 +4382,8 @@
       <c r="K58" t="n">
         <v>0.2708237797136228</v>
       </c>
-      <c r="L58" s="1" t="n">
-        <v>5</v>
+      <c r="L58" t="n">
+        <v>4</v>
       </c>
       <c r="M58" t="n">
         <v>0.5</v>
@@ -4450,8 +4450,8 @@
       <c r="K59" t="n">
         <v>0.4651742170898425</v>
       </c>
-      <c r="L59" s="1" t="n">
-        <v>9</v>
+      <c r="L59" t="n">
+        <v>5</v>
       </c>
       <c r="M59" t="n">
         <v>0.6666666666666666</v>
@@ -4518,8 +4518,8 @@
       <c r="K60" t="n">
         <v>0.1869834630012298</v>
       </c>
-      <c r="L60" s="1" t="n">
-        <v>5</v>
+      <c r="L60" t="n">
+        <v>4</v>
       </c>
       <c r="M60" t="n">
         <v>0.6</v>
@@ -4654,8 +4654,8 @@
       <c r="K62" t="n">
         <v>0.2889035023330559</v>
       </c>
-      <c r="L62" s="1" t="n">
-        <v>5</v>
+      <c r="L62" t="n">
+        <v>4</v>
       </c>
       <c r="M62" t="n">
         <v>0.6666666666666666</v>
@@ -4722,8 +4722,8 @@
       <c r="K63" t="n">
         <v>0.4778548158942699</v>
       </c>
-      <c r="L63" s="1" t="n">
-        <v>10</v>
+      <c r="L63" t="n">
+        <v>5</v>
       </c>
       <c r="M63" t="n">
         <v>0.6666666666666666</v>
@@ -4790,8 +4790,8 @@
       <c r="K64" t="n">
         <v>0.2901606652337822</v>
       </c>
-      <c r="L64" s="1" t="n">
-        <v>5</v>
+      <c r="L64" t="n">
+        <v>4</v>
       </c>
       <c r="M64" t="n">
         <v>0.6</v>
@@ -4858,8 +4858,8 @@
       <c r="K65" t="n">
         <v>0.1464749408829529</v>
       </c>
-      <c r="L65" s="1" t="n">
-        <v>6</v>
+      <c r="L65" t="n">
+        <v>5</v>
       </c>
       <c r="M65" t="n">
         <v>0.3333333333333333</v>
@@ -4926,8 +4926,8 @@
       <c r="K66" t="n">
         <v>0.359878630853778</v>
       </c>
-      <c r="L66" s="1" t="n">
-        <v>6</v>
+      <c r="L66" t="n">
+        <v>4</v>
       </c>
       <c r="M66" t="n">
         <v>0.5</v>
@@ -4994,8 +4994,8 @@
       <c r="K67" t="n">
         <v>0.3710935959852772</v>
       </c>
-      <c r="L67" s="1" t="n">
-        <v>6</v>
+      <c r="L67" t="n">
+        <v>5</v>
       </c>
       <c r="M67" t="n">
         <v>0.5</v>

--- a/tsml_eval/_wip/catch22/aeon_catch22_with_numba.xlsx
+++ b/tsml_eval/_wip/catch22/aeon_catch22_with_numba.xlsx
@@ -26,12 +26,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +52,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -424,112 +431,112 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>DN_HistogramMode_5</t>
+          <t>mode_5</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>DN_HistogramMode_10</t>
+          <t>mode_10</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>CO_f1ecac</t>
+          <t>stretch_high</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>CO_FirstMin_ac</t>
+          <t>outlier_timing_pos</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>CO_HistogramAMI_even_2_5</t>
+          <t>outlier_timing_neg</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>CO_trev_1_num</t>
+          <t>acf_timescale</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>MD_hrv_classic_pnn40</t>
+          <t>acf_first_min</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>SB_BinaryStats_mean_longstretch1</t>
+          <t>centroid_freq</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>SB_TransitionMatrix_3ac_sumdiagcov</t>
+          <t>low_freq_power</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>PD_PeriodicityWang_th0_01</t>
+          <t>forecast_error</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>CO_Embed2_Dist_tau_d_expfit_meandiff</t>
+          <t>trev</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>IN_AutoMutualInfoStats_40_gaussian_fmmi</t>
+          <t>ami2</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>FC_LocalSimple_mean1_tauresrat</t>
+          <t>ami_timescale</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>DN_OutlierInclude_p_001_mdrmd</t>
+          <t>high_fluctuation</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>DN_OutlierInclude_n_001_mdrmd</t>
+          <t>stretch_decreasing</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>SP_Summaries_welch_rect_area_5_1</t>
+          <t>entropy_pairs</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>SB_BinaryStats_diff_longstretch0</t>
+          <t>whiten_timescale</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>SB_MotifThree_quantile_hh</t>
+          <t>periodicity</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>SC_FluctAnal_2_rsrangefit_50_1_logi_prop_r1</t>
+          <t>dfa</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>SC_FluctAnal_2_dfa_50_1_2_logi_prop_r1</t>
+          <t>rs_range</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>SP_Summaries_welch_rect_centroid</t>
+          <t>transition_matrix</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>FC_LocalSimple_mean3_stderr</t>
+          <t>periodicity</t>
         </is>
       </c>
     </row>
@@ -597,8 +604,8 @@
       <c r="U2" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V2" t="n">
-        <v>0.8574191573061893</v>
+      <c r="V2" s="1" t="n">
+        <v>1.787502084491367</v>
       </c>
     </row>
     <row r="3">
@@ -665,8 +672,8 @@
       <c r="U3" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V3" t="n">
-        <v>0.6826107272137758</v>
+      <c r="V3" s="1" t="n">
+        <v>1.73023804570537</v>
       </c>
     </row>
     <row r="4">
@@ -733,8 +740,8 @@
       <c r="U4" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V4" t="n">
-        <v>0.8864360551857</v>
+      <c r="V4" s="1" t="n">
+        <v>1.73023804570537</v>
       </c>
     </row>
     <row r="5">
@@ -801,8 +808,8 @@
       <c r="U5" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V5" t="n">
-        <v>0.6643191885375342</v>
+      <c r="V5" s="1" t="n">
+        <v>1.605420035791506</v>
       </c>
     </row>
     <row r="6">
@@ -869,8 +876,8 @@
       <c r="U6" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V6" t="n">
-        <v>0.6741940111567349</v>
+      <c r="V6" s="1" t="n">
+        <v>1.73023804570537</v>
       </c>
     </row>
     <row r="7">
@@ -937,8 +944,8 @@
       <c r="U7" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V7" t="n">
-        <v>0.8184240915298243</v>
+      <c r="V7" s="1" t="n">
+        <v>1.778747513382372</v>
       </c>
     </row>
     <row r="8">
@@ -1005,8 +1012,8 @@
       <c r="U8" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V8" t="n">
-        <v>0.8883513367359682</v>
+      <c r="V8" s="1" t="n">
+        <v>1.847775752366145</v>
       </c>
     </row>
     <row r="9">
@@ -1073,8 +1080,8 @@
       <c r="U9" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V9" t="n">
-        <v>0.6289793636448475</v>
+      <c r="V9" s="1" t="n">
+        <v>1.73023804570537</v>
       </c>
     </row>
     <row r="10">
@@ -1141,8 +1148,8 @@
       <c r="U10" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V10" t="n">
-        <v>0.6154088878652204</v>
+      <c r="V10" s="1" t="n">
+        <v>1.73023804570537</v>
       </c>
     </row>
     <row r="11">
@@ -1209,8 +1216,8 @@
       <c r="U11" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V11" t="n">
-        <v>0.6682353638799723</v>
+      <c r="V11" s="1" t="n">
+        <v>1.483611654966423</v>
       </c>
     </row>
     <row r="12">
@@ -1277,8 +1284,8 @@
       <c r="U12" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V12" t="n">
-        <v>0.7552580635694194</v>
+      <c r="V12" s="1" t="n">
+        <v>1.911059049329703</v>
       </c>
     </row>
     <row r="13">
@@ -1345,8 +1352,8 @@
       <c r="U13" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V13" t="n">
-        <v>0.7156207708092244</v>
+      <c r="V13" s="1" t="n">
+        <v>1.790511713580147</v>
       </c>
     </row>
     <row r="14">
@@ -1413,8 +1420,8 @@
       <c r="U14" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V14" t="n">
-        <v>0.6814319447688442</v>
+      <c r="V14" s="1" t="n">
+        <v>1.73023804570537</v>
       </c>
     </row>
     <row r="15">
@@ -1481,8 +1488,8 @@
       <c r="U15" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V15" t="n">
-        <v>0.65708644925339</v>
+      <c r="V15" s="1" t="n">
+        <v>1.665693703666284</v>
       </c>
     </row>
     <row r="16">
@@ -1549,8 +1556,8 @@
       <c r="U16" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V16" t="n">
-        <v>0.6849799384292986</v>
+      <c r="V16" s="1" t="n">
+        <v>1.730238045705369</v>
       </c>
     </row>
     <row r="17">
@@ -1617,8 +1624,8 @@
       <c r="U17" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V17" t="n">
-        <v>0.7670002264041113</v>
+      <c r="V17" s="1" t="n">
+        <v>1.819976677806285</v>
       </c>
     </row>
     <row r="18">
@@ -1685,8 +1692,8 @@
       <c r="U18" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V18" t="n">
-        <v>0.7218312500339272</v>
+      <c r="V18" s="1" t="n">
+        <v>1.778747513382372</v>
       </c>
     </row>
     <row r="19">
@@ -1753,8 +1760,8 @@
       <c r="U19" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V19" t="n">
-        <v>0.7055351163517595</v>
+      <c r="V19" s="1" t="n">
+        <v>1.714203171343286</v>
       </c>
     </row>
     <row r="20">
@@ -1821,8 +1828,8 @@
       <c r="U20" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V20" t="n">
-        <v>0.6458425355632602</v>
+      <c r="V20" s="1" t="n">
+        <v>1.483611654966423</v>
       </c>
     </row>
     <row r="21">
@@ -1889,8 +1896,8 @@
       <c r="U21" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V21" t="n">
-        <v>0.6492256208314514</v>
+      <c r="V21" s="1" t="n">
+        <v>1.73023804570537</v>
       </c>
     </row>
     <row r="22">
@@ -1957,8 +1964,8 @@
       <c r="U22" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V22" t="n">
-        <v>0.667185686402688</v>
+      <c r="V22" s="1" t="n">
+        <v>1.790511713580147</v>
       </c>
     </row>
     <row r="23">
@@ -2025,8 +2032,8 @@
       <c r="U23" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V23" t="n">
-        <v>0.6662215934181749</v>
+      <c r="V23" s="1" t="n">
+        <v>1.483611654966423</v>
       </c>
     </row>
     <row r="24">
@@ -2093,8 +2100,8 @@
       <c r="U24" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V24" t="n">
-        <v>0.6798841218158759</v>
+      <c r="V24" s="1" t="n">
+        <v>1.790511713580147</v>
       </c>
     </row>
     <row r="25">
@@ -2161,8 +2168,8 @@
       <c r="U25" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V25" t="n">
-        <v>0.6999238317103339</v>
+      <c r="V25" s="1" t="n">
+        <v>1.605420035791506</v>
       </c>
     </row>
     <row r="26">
@@ -2229,8 +2236,8 @@
       <c r="U26" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V26" t="n">
-        <v>0.7066769666510576</v>
+      <c r="V26" s="1" t="n">
+        <v>1.73023804570537</v>
       </c>
     </row>
     <row r="27">
@@ -2297,8 +2304,8 @@
       <c r="U27" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V27" t="n">
-        <v>0.9299716493102558</v>
+      <c r="V27" s="1" t="n">
+        <v>1.83902118125715</v>
       </c>
     </row>
     <row r="28">
@@ -2365,8 +2372,8 @@
       <c r="U28" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V28" t="n">
-        <v>0.7012995687514046</v>
+      <c r="V28" s="1" t="n">
+        <v>1.73023804570537</v>
       </c>
     </row>
     <row r="29">
@@ -2433,8 +2440,8 @@
       <c r="U29" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V29" t="n">
-        <v>0.6754997567266193</v>
+      <c r="V29" s="1" t="n">
+        <v>1.714203171343286</v>
       </c>
     </row>
     <row r="30">
@@ -2501,8 +2508,8 @@
       <c r="U30" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V30" t="n">
-        <v>0.651422242259642</v>
+      <c r="V30" s="1" t="n">
+        <v>1.605420035791506</v>
       </c>
     </row>
     <row r="31">
@@ -2569,8 +2576,8 @@
       <c r="U31" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V31" t="n">
-        <v>0.6858122216291865</v>
+      <c r="V31" s="1" t="n">
+        <v>1.665693703666284</v>
       </c>
     </row>
     <row r="32">
@@ -2637,8 +2644,8 @@
       <c r="U32" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V32" t="n">
-        <v>0.6561863467065937</v>
+      <c r="V32" s="1" t="n">
+        <v>1.73023804570537</v>
       </c>
     </row>
     <row r="33">
@@ -2705,8 +2712,8 @@
       <c r="U33" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V33" t="n">
-        <v>0.8376587367987973</v>
+      <c r="V33" s="1" t="n">
+        <v>1.885299500946812</v>
       </c>
     </row>
     <row r="34">
@@ -2773,8 +2780,8 @@
       <c r="U34" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V34" t="n">
-        <v>0.6516400889749291</v>
+      <c r="V34" s="1" t="n">
+        <v>1.483611654966423</v>
       </c>
     </row>
     <row r="35">
@@ -2841,8 +2848,8 @@
       <c r="U35" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V35" t="n">
-        <v>0.7400365745078062</v>
+      <c r="V35" s="1" t="n">
+        <v>1.714203171343286</v>
       </c>
     </row>
     <row r="36">
@@ -2909,8 +2916,8 @@
       <c r="U36" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V36" t="n">
-        <v>0.8960191792551805</v>
+      <c r="V36" s="1" t="n">
+        <v>1.994082636498592</v>
       </c>
     </row>
     <row r="37">
@@ -2977,8 +2984,8 @@
       <c r="U37" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V37" t="n">
-        <v>0.6446974682455934</v>
+      <c r="V37" s="1" t="n">
+        <v>1.605420035791506</v>
       </c>
     </row>
     <row r="38">
@@ -3045,8 +3052,8 @@
       <c r="U38" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V38" t="n">
-        <v>0.6012963197891809</v>
+      <c r="V38" s="1" t="n">
+        <v>1.790511713580147</v>
       </c>
     </row>
     <row r="39">
@@ -3113,8 +3120,8 @@
       <c r="U39" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V39" t="n">
-        <v>0.9560072040126173</v>
+      <c r="V39" s="1" t="n">
+        <v>1.73023804570537</v>
       </c>
     </row>
     <row r="40">
@@ -3181,8 +3188,8 @@
       <c r="U40" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V40" t="n">
-        <v>0.6640850982452019</v>
+      <c r="V40" s="1" t="n">
+        <v>1.665693703666284</v>
       </c>
     </row>
     <row r="41">
@@ -3249,8 +3256,8 @@
       <c r="U41" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V41" t="n">
-        <v>0.6046829025695121</v>
+      <c r="V41" s="1" t="n">
+        <v>1.605420035791506</v>
       </c>
     </row>
     <row r="42">
@@ -3317,8 +3324,8 @@
       <c r="U42" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V42" t="n">
-        <v>0.847826137624116</v>
+      <c r="V42" s="1" t="n">
+        <v>1.714203171343286</v>
       </c>
     </row>
     <row r="43">
@@ -3385,8 +3392,8 @@
       <c r="U43" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V43" t="n">
-        <v>0.7073200176862909</v>
+      <c r="V43" s="1" t="n">
+        <v>1.73023804570537</v>
       </c>
     </row>
     <row r="44">
@@ -3453,8 +3460,8 @@
       <c r="U44" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V44" t="n">
-        <v>0.6199724495025251</v>
+      <c r="V44" s="1" t="n">
+        <v>1.483611654966423</v>
       </c>
     </row>
     <row r="45">
@@ -3521,8 +3528,8 @@
       <c r="U45" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V45" t="n">
-        <v>0.8716415822789345</v>
+      <c r="V45" s="1" t="n">
+        <v>1.834750507092842</v>
       </c>
     </row>
     <row r="46">
@@ -3589,8 +3596,8 @@
       <c r="U46" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V46" t="n">
-        <v>0.6827214533705925</v>
+      <c r="V46" s="1" t="n">
+        <v>1.730238045705369</v>
       </c>
     </row>
     <row r="47">
@@ -3657,8 +3664,8 @@
       <c r="U47" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V47" t="n">
-        <v>0.6704933583602372</v>
+      <c r="V47" s="1" t="n">
+        <v>1.483611654966423</v>
       </c>
     </row>
     <row r="48">
@@ -3725,8 +3732,8 @@
       <c r="U48" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V48" t="n">
-        <v>0.8476026266696666</v>
+      <c r="V48" s="1" t="n">
+        <v>1.836011552168369</v>
       </c>
     </row>
     <row r="49">
@@ -3793,8 +3800,8 @@
       <c r="U49" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V49" t="n">
-        <v>0.6430829873760525</v>
+      <c r="V49" s="1" t="n">
+        <v>1.483611654966423</v>
       </c>
     </row>
     <row r="50">
@@ -3861,8 +3868,8 @@
       <c r="U50" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V50" t="n">
-        <v>0.7987267666407276</v>
+      <c r="V50" s="1" t="n">
+        <v>1.751726919923953</v>
       </c>
     </row>
     <row r="51">
@@ -3929,8 +3936,8 @@
       <c r="U51" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V51" t="n">
-        <v>0.9354075367230528</v>
+      <c r="V51" s="1" t="n">
+        <v>1.548155997005509</v>
       </c>
     </row>
     <row r="52">
@@ -3997,8 +4004,8 @@
       <c r="U52" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V52" t="n">
-        <v>0.6836890455803701</v>
+      <c r="V52" s="1" t="n">
+        <v>1.548155997005509</v>
       </c>
     </row>
     <row r="53">
@@ -4065,8 +4072,8 @@
       <c r="U53" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V53" t="n">
-        <v>0.8369230021690024</v>
+      <c r="V53" s="1" t="n">
+        <v>1.665693703666284</v>
       </c>
     </row>
     <row r="54">
@@ -4133,8 +4140,8 @@
       <c r="U54" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V54" t="n">
-        <v>0.6445781827085135</v>
+      <c r="V54" s="1" t="n">
+        <v>1.639934155283393</v>
       </c>
     </row>
     <row r="55">
@@ -4201,8 +4208,8 @@
       <c r="U55" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V55" t="n">
-        <v>0.9339964139920454</v>
+      <c r="V55" s="1" t="n">
+        <v>1.73023804570537</v>
       </c>
     </row>
     <row r="56">
@@ -4269,8 +4276,8 @@
       <c r="U56" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V56" t="n">
-        <v>0.907844931347941</v>
+      <c r="V56" s="1" t="n">
+        <v>1.816271261963039</v>
       </c>
     </row>
     <row r="57">
@@ -4337,8 +4344,8 @@
       <c r="U57" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V57" t="n">
-        <v>0.6487154681166755</v>
+      <c r="V57" s="1" t="n">
+        <v>1.790511713580147</v>
       </c>
     </row>
     <row r="58">
@@ -4405,8 +4412,8 @@
       <c r="U58" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V58" t="n">
-        <v>0.6611991176085891</v>
+      <c r="V58" s="1" t="n">
+        <v>1.665693703666284</v>
       </c>
     </row>
     <row r="59">
@@ -4473,8 +4480,8 @@
       <c r="U59" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V59" t="n">
-        <v>0.6035174675167421</v>
+      <c r="V59" s="1" t="n">
+        <v>1.790511713580147</v>
       </c>
     </row>
     <row r="60">
@@ -4541,8 +4548,8 @@
       <c r="U60" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V60" t="n">
-        <v>0.7705482909857329</v>
+      <c r="V60" s="1" t="n">
+        <v>1.714203171343286</v>
       </c>
     </row>
     <row r="61">
@@ -4609,8 +4616,8 @@
       <c r="U61" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V61" t="n">
-        <v>0.8717289241280402</v>
+      <c r="V61" s="1" t="n">
+        <v>1.885299500946812</v>
       </c>
     </row>
     <row r="62">
@@ -4677,8 +4684,8 @@
       <c r="U62" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V62" t="n">
-        <v>0.6534315654878825</v>
+      <c r="V62" s="1" t="n">
+        <v>1.483611654966423</v>
       </c>
     </row>
     <row r="63">
@@ -4745,8 +4752,8 @@
       <c r="U63" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V63" t="n">
-        <v>0.6286856048261045</v>
+      <c r="V63" s="1" t="n">
+        <v>1.73023804570537</v>
       </c>
     </row>
     <row r="64">
@@ -4813,8 +4820,8 @@
       <c r="U64" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V64" t="n">
-        <v>0.7301769265296958</v>
+      <c r="V64" s="1" t="n">
+        <v>1.730238045705369</v>
       </c>
     </row>
     <row r="65">
@@ -4881,8 +4888,8 @@
       <c r="U65" t="n">
         <v>0.3926990816987241</v>
       </c>
-      <c r="V65" t="n">
-        <v>0.7170050516296856</v>
+      <c r="V65" s="1" t="n">
+        <v>1.857500426386953</v>
       </c>
     </row>
     <row r="66">
@@ -4949,8 +4956,8 @@
       <c r="U66" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V66" t="n">
-        <v>0.6601457743852601</v>
+      <c r="V66" s="1" t="n">
+        <v>1.73023804570537</v>
       </c>
     </row>
     <row r="67">
@@ -5017,8 +5024,8 @@
       <c r="U67" t="n">
         <v>0.1963495408493621</v>
       </c>
-      <c r="V67" t="n">
-        <v>0.6598705402406428</v>
+      <c r="V67" s="1" t="n">
+        <v>1.665693703666284</v>
       </c>
     </row>
     <row r="68">
@@ -5085,8 +5092,8 @@
       <c r="U68" t="n">
         <v>0.5890486225480862</v>
       </c>
-      <c r="V68" t="n">
-        <v>0.9646969910791235</v>
+      <c r="V68" s="1" t="n">
+        <v>1.831740878004061</v>
       </c>
     </row>
   </sheetData>
